--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HuiSin\Documents\GitHub\project-g1t8\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB5E119-F2FB-4D19-9B41-A64B70BB330E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96B58DE-D387-4756-BD6B-1795BFD8F661}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="138">
   <si>
     <t>Question</t>
   </si>
@@ -429,6 +429,27 @@
   </si>
   <si>
     <t xml:space="preserve">Helped with scheduling </t>
+  </si>
+  <si>
+    <t>Helped with scheduling, wrote test cases for 'open / close' round functionality</t>
+  </si>
+  <si>
+    <t>Online Review</t>
+  </si>
+  <si>
+    <t>Debugged bootstrap and run through the test cases, completed 'open / close' round functionality with hilya</t>
+  </si>
+  <si>
+    <t>Debugged bootstrap and run through the test cases, completed 'open / close' round functionality with sky</t>
+  </si>
+  <si>
+    <t>Debug process_dropbid.php, help with presentation slides, Online Review</t>
+  </si>
+  <si>
+    <t>Adjusting schedule, daily updates, worked on slides</t>
+  </si>
+  <si>
+    <t>Continue updating the schedule, daily updates, work on slides, deploy app on AWS</t>
   </si>
 </sst>
 </file>
@@ -18612,9 +18633,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E2" sqref="E2"/>
+      <selection pane="topRight" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -18721,7 +18742,9 @@
       <c r="E3" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="F3" s="14"/>
+      <c r="F3" s="14" t="s">
+        <v>131</v>
+      </c>
       <c r="G3" s="14"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
@@ -18740,7 +18763,9 @@
       <c r="E4" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="F4" s="14"/>
+      <c r="F4" s="14" t="s">
+        <v>135</v>
+      </c>
       <c r="G4" s="14"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
@@ -18759,7 +18784,9 @@
       <c r="E5" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="14"/>
+      <c r="F5" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="G5" s="14"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
@@ -18780,7 +18807,9 @@
       <c r="E6" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="14"/>
+      <c r="F6" s="14" t="s">
+        <v>29</v>
+      </c>
       <c r="G6" s="14"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
@@ -18799,7 +18828,9 @@
       <c r="E7" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="14"/>
+      <c r="F7" s="14" t="s">
+        <v>132</v>
+      </c>
       <c r="G7" s="14"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
@@ -18818,7 +18849,9 @@
       <c r="E8" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="14"/>
+      <c r="F8" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="G8" s="14"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
@@ -18839,7 +18872,9 @@
       <c r="E9" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="F9" s="14"/>
+      <c r="F9" s="11" t="s">
+        <v>136</v>
+      </c>
       <c r="G9" s="14"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
@@ -18858,7 +18893,9 @@
       <c r="E10" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="F10" s="14"/>
+      <c r="F10" s="14" t="s">
+        <v>137</v>
+      </c>
       <c r="G10" s="14"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
@@ -18877,7 +18914,9 @@
       <c r="E11" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="14"/>
+      <c r="F11" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="G11" s="14"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
@@ -18898,7 +18937,9 @@
       <c r="E12" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="F12" s="14"/>
+      <c r="F12" s="14" t="s">
+        <v>133</v>
+      </c>
       <c r="G12" s="14"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
@@ -18917,7 +18958,9 @@
       <c r="E13" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="F13" s="14"/>
+      <c r="F13" s="14" t="s">
+        <v>132</v>
+      </c>
       <c r="G13" s="14"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
@@ -18936,7 +18979,9 @@
       <c r="E14" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="14"/>
+      <c r="F14" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="G14" s="14"/>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
@@ -18957,7 +19002,9 @@
       <c r="E15" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="F15" s="14"/>
+      <c r="F15" s="14" t="s">
+        <v>134</v>
+      </c>
       <c r="G15" s="14"/>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
@@ -18976,7 +19023,9 @@
       <c r="E16" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="F16" s="14"/>
+      <c r="F16" s="14" t="s">
+        <v>132</v>
+      </c>
       <c r="G16" s="14"/>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
@@ -18995,7 +19044,9 @@
       <c r="E17" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="14"/>
+      <c r="F17" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="G17" s="14"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HuiSin\Documents\GitHub\project-g1t8\metrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hilya\OneDrive\Documents\GitHub\project-g1t8\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96B58DE-D387-4756-BD6B-1795BFD8F661}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21AAEA59-0940-4583-8A53-A3237A9368CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="142">
   <si>
     <t>Question</t>
   </si>
@@ -450,6 +450,18 @@
   </si>
   <si>
     <t>Continue updating the schedule, daily updates, work on slides, deploy app on AWS</t>
+  </si>
+  <si>
+    <t>Received feedback from Online Review. Ammended scheduling.</t>
+  </si>
+  <si>
+    <t>Received feedback from Online Review. Ammended scheduling. Handover PM duties to Hilya</t>
+  </si>
+  <si>
+    <t>Received feedback from Online Review. Ammended scheduling. Received all the updates and tasks as PM from Hui Sin</t>
+  </si>
+  <si>
+    <t>Update schedule.</t>
   </si>
 </sst>
 </file>
@@ -14166,7 +14178,7 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1:I1"/>
     </sheetView>
@@ -18633,9 +18645,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -18745,7 +18757,9 @@
       <c r="F3" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="G3" s="14"/>
+      <c r="G3" s="14" t="s">
+        <v>138</v>
+      </c>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
     </row>
@@ -18766,7 +18780,9 @@
       <c r="F4" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="G4" s="14"/>
+      <c r="G4" s="14" t="s">
+        <v>29</v>
+      </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
     </row>
@@ -18787,7 +18803,9 @@
       <c r="F5" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="14"/>
+      <c r="G5" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
     </row>
@@ -18810,7 +18828,9 @@
       <c r="F6" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="14"/>
+      <c r="G6" s="14" t="s">
+        <v>138</v>
+      </c>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
     </row>
@@ -18831,7 +18851,9 @@
       <c r="F7" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="G7" s="14"/>
+      <c r="G7" s="14" t="s">
+        <v>29</v>
+      </c>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
     </row>
@@ -18852,7 +18874,9 @@
       <c r="F8" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="14"/>
+      <c r="G8" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
     </row>
@@ -18875,7 +18899,9 @@
       <c r="F9" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="G9" s="14"/>
+      <c r="G9" s="14" t="s">
+        <v>139</v>
+      </c>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
     </row>
@@ -18896,7 +18922,9 @@
       <c r="F10" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="G10" s="14"/>
+      <c r="G10" s="14" t="s">
+        <v>29</v>
+      </c>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
     </row>
@@ -18917,7 +18945,9 @@
       <c r="F11" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="14"/>
+      <c r="G11" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
     </row>
@@ -18940,7 +18970,9 @@
       <c r="F12" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="G12" s="14"/>
+      <c r="G12" s="14" t="s">
+        <v>138</v>
+      </c>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
     </row>
@@ -18961,7 +18993,9 @@
       <c r="F13" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="G13" s="14"/>
+      <c r="G13" s="14" t="s">
+        <v>29</v>
+      </c>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
     </row>
@@ -18982,7 +19016,9 @@
       <c r="F14" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="14"/>
+      <c r="G14" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
     </row>
@@ -19005,7 +19041,9 @@
       <c r="F15" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="G15" s="14"/>
+      <c r="G15" s="14" t="s">
+        <v>140</v>
+      </c>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
     </row>
@@ -19026,7 +19064,9 @@
       <c r="F16" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="G16" s="14"/>
+      <c r="G16" s="14" t="s">
+        <v>141</v>
+      </c>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
     </row>
@@ -19047,7 +19087,9 @@
       <c r="F17" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="14"/>
+      <c r="G17" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
     </row>
@@ -23010,7 +23052,7 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="A12" sqref="A12:A14"/>
     </sheetView>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hilya\OneDrive\Documents\GitHub\project-g1t8\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21AAEA59-0940-4583-8A53-A3237A9368CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF93E50-7DA5-4209-AFF3-B54DDCE8DEAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="143">
   <si>
     <t>Question</t>
   </si>
@@ -462,6 +462,9 @@
   </si>
   <si>
     <t>Update schedule.</t>
+  </si>
+  <si>
+    <t>Updated schedule</t>
   </si>
 </sst>
 </file>
@@ -14178,8 +14181,8 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1:I1"/>
     </sheetView>
   </sheetViews>
@@ -18647,7 +18650,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F20" sqref="F20"/>
+      <selection pane="topRight" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -18760,7 +18763,9 @@
       <c r="G3" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="H3" s="11"/>
+      <c r="H3" s="11" t="s">
+        <v>29</v>
+      </c>
       <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:26" ht="63.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18783,7 +18788,9 @@
       <c r="G4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="11"/>
+      <c r="H4" s="11" t="s">
+        <v>29</v>
+      </c>
       <c r="I4" s="11"/>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18806,7 +18813,9 @@
       <c r="G5" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="11"/>
+      <c r="H5" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="1:26" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -18831,7 +18840,9 @@
       <c r="G6" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="H6" s="11"/>
+      <c r="H6" s="11" t="s">
+        <v>29</v>
+      </c>
       <c r="I6" s="11"/>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18854,7 +18865,9 @@
       <c r="G7" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="11"/>
+      <c r="H7" s="11" t="s">
+        <v>29</v>
+      </c>
       <c r="I7" s="11"/>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18877,7 +18890,9 @@
       <c r="G8" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="11"/>
+      <c r="H8" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="I8" s="11"/>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18902,7 +18917,9 @@
       <c r="G9" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="H9" s="11"/>
+      <c r="H9" s="11" t="s">
+        <v>29</v>
+      </c>
       <c r="I9" s="11"/>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18925,7 +18942,9 @@
       <c r="G10" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="11"/>
+      <c r="H10" s="11" t="s">
+        <v>29</v>
+      </c>
       <c r="I10" s="11"/>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18948,7 +18967,9 @@
       <c r="G11" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="11"/>
+      <c r="H11" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="I11" s="11"/>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18973,7 +18994,9 @@
       <c r="G12" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="H12" s="11"/>
+      <c r="H12" s="11" t="s">
+        <v>29</v>
+      </c>
       <c r="I12" s="11"/>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18996,7 +19019,9 @@
       <c r="G13" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="11"/>
+      <c r="H13" s="11" t="s">
+        <v>29</v>
+      </c>
       <c r="I13" s="11"/>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19019,7 +19044,9 @@
       <c r="G14" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="11"/>
+      <c r="H14" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -19044,7 +19071,9 @@
       <c r="G15" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="H15" s="11"/>
+      <c r="H15" s="11" t="s">
+        <v>142</v>
+      </c>
       <c r="I15" s="11"/>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19067,7 +19096,9 @@
       <c r="G16" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="H16" s="11"/>
+      <c r="H16" s="11" t="s">
+        <v>29</v>
+      </c>
       <c r="I16" s="11"/>
     </row>
     <row r="17" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19090,7 +19121,9 @@
       <c r="G17" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="H17" s="11"/>
+      <c r="H17" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="I17" s="11"/>
     </row>
     <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.25">

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hilya\OneDrive\Documents\GitHub\project-g1t8\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF93E50-7DA5-4209-AFF3-B54DDCE8DEAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD567544-D8B0-4166-99B1-EE65639F5FDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="143">
   <si>
     <t>Question</t>
   </si>
@@ -18650,7 +18650,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I15" sqref="I15"/>
+      <selection pane="topRight" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -18766,7 +18766,9 @@
       <c r="H3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="11"/>
+      <c r="I3" s="11" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="4" spans="1:26" ht="63.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16"/>
@@ -18791,7 +18793,9 @@
       <c r="H4" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="11"/>
+      <c r="I4" s="11" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -18816,7 +18820,9 @@
       <c r="H5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="11"/>
+      <c r="I5" s="11" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="1:26" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
@@ -18843,7 +18849,9 @@
       <c r="H6" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="11"/>
+      <c r="I6" s="11" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
@@ -18868,7 +18876,9 @@
       <c r="H7" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="11"/>
+      <c r="I7" s="11" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>
@@ -18893,7 +18903,9 @@
       <c r="H8" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="11"/>
+      <c r="I8" s="11" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
@@ -18920,7 +18932,9 @@
       <c r="H9" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="11"/>
+      <c r="I9" s="11" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
@@ -18945,7 +18959,9 @@
       <c r="H10" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="11"/>
+      <c r="I10" s="11" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
@@ -18970,7 +18986,9 @@
       <c r="H11" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="11"/>
+      <c r="I11" s="11" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
@@ -18997,7 +19015,9 @@
       <c r="H12" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="11"/>
+      <c r="I12" s="11" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16"/>
@@ -19022,7 +19042,9 @@
       <c r="H13" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="11"/>
+      <c r="I13" s="11" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16"/>
@@ -19047,7 +19069,9 @@
       <c r="H14" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I14" s="11"/>
+      <c r="I14" s="11" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
@@ -19074,7 +19098,9 @@
       <c r="H15" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="I15" s="11"/>
+      <c r="I15" s="11" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
@@ -19099,7 +19125,9 @@
       <c r="H16" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="11"/>
+      <c r="I16" s="11" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="17" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
@@ -19124,7 +19152,9 @@
       <c r="H17" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="11"/>
+      <c r="I17" s="11" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hilya\OneDrive\Documents\GitHub\project-g1t8\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B46D803-4616-44AA-9F4B-7301FC42F46A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281910D9-80E2-4532-BD70-5710B54569DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 5" sheetId="18" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="156">
   <si>
     <t>Question</t>
   </si>
@@ -475,6 +475,36 @@
   <si>
     <t>Continue updating the schedule, daily updates, and also implement clearing round 1 logic</t>
   </si>
+  <si>
+    <t xml:space="preserve">Started on clearing round 1 logic </t>
+  </si>
+  <si>
+    <t>Will continue completing clearing round 1 logic</t>
+  </si>
+  <si>
+    <t>Jie Min was struggling coding</t>
+  </si>
+  <si>
+    <t>Updated dropbid and dropsection and debugged it.</t>
+  </si>
+  <si>
+    <t>Continue to start on JSON API authentication</t>
+  </si>
+  <si>
+    <t>Continue to complete clearing round 1 logic</t>
+  </si>
+  <si>
+    <t>Sky was struggling with coding</t>
+  </si>
+  <si>
+    <t>Updated the schedule and daily updates. Also updated dropbid and dropsection.</t>
+  </si>
+  <si>
+    <t>Continue updating the schedule, daily updates, and start on JSON API authentication</t>
+  </si>
+  <si>
+    <t>Start on JSON API authentication</t>
+  </si>
 </sst>
 </file>
 
@@ -619,6 +649,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -637,16 +677,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -951,21 +981,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.399999999999999">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -985,8 +1015,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.6">
-      <c r="A2" s="16"/>
-      <c r="B2" s="19"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -1027,7 +1057,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="21" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1048,7 +1078,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="63.15" customHeight="1">
-      <c r="A4" s="16"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -1067,7 +1097,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A5" s="16"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -1086,7 +1116,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="62.4" customHeight="1">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="21" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1107,7 +1137,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A7" s="16"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -1126,7 +1156,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A8" s="16"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -1145,7 +1175,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="21" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1166,7 +1196,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A10" s="16"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -1185,7 +1215,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A11" s="16"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -1204,7 +1234,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="19" t="s">
         <v>84</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -1225,7 +1255,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A13" s="16"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -1244,7 +1274,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A14" s="16"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -1263,7 +1293,7 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="21" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -1284,7 +1314,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A16" s="16"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -1303,7 +1333,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="63.75" customHeight="1">
-      <c r="A17" s="16"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -5298,21 +5328,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.399999999999999">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -5332,8 +5362,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.6">
-      <c r="A2" s="16"/>
-      <c r="B2" s="19"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -5374,7 +5404,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="21" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -5403,7 +5433,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="63.15" customHeight="1">
-      <c r="A4" s="16"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -5430,7 +5460,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A5" s="16"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -5457,7 +5487,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="62.4" customHeight="1">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="21" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -5486,7 +5516,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A7" s="16"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -5513,7 +5543,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A8" s="16"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -5540,7 +5570,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="21" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -5569,7 +5599,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A10" s="16"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -5596,7 +5626,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A11" s="16"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -5623,7 +5653,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="19" t="s">
         <v>84</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -5652,7 +5682,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A13" s="16"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -5679,7 +5709,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A14" s="16"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -5706,7 +5736,7 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="21" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -5735,7 +5765,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A16" s="16"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -5762,7 +5792,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="63.75" customHeight="1">
-      <c r="A17" s="16"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -9765,21 +9795,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.399999999999999">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -9799,8 +9829,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.6">
-      <c r="A2" s="16"/>
-      <c r="B2" s="19"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -9841,7 +9871,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="21" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -9870,7 +9900,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="63.15" customHeight="1">
-      <c r="A4" s="16"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -9897,7 +9927,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A5" s="16"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -9924,7 +9954,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="62.4" customHeight="1">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="21" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -9953,7 +9983,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A7" s="16"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -9980,7 +10010,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A8" s="16"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -10007,7 +10037,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="21" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -10036,7 +10066,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A10" s="16"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -10063,7 +10093,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A11" s="16"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -10090,7 +10120,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="19" t="s">
         <v>84</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -10119,7 +10149,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A13" s="16"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -10146,7 +10176,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A14" s="16"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -10173,7 +10203,7 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="21" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -10202,7 +10232,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A16" s="16"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -10229,7 +10259,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="63.75" customHeight="1">
-      <c r="A17" s="16"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -14232,21 +14262,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.399999999999999">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -14266,8 +14296,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.6">
-      <c r="A2" s="16"/>
-      <c r="B2" s="19"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -14308,7 +14338,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="21" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -14337,7 +14367,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="63.15" customHeight="1">
-      <c r="A4" s="16"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -14364,7 +14394,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A5" s="16"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -14391,7 +14421,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="62.4" customHeight="1">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="21" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -14420,7 +14450,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A7" s="16"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -14447,7 +14477,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A8" s="16"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -14474,7 +14504,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="21" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -14503,7 +14533,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A10" s="16"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -14530,7 +14560,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A11" s="16"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -14557,7 +14587,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="19" t="s">
         <v>84</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -14586,7 +14616,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A13" s="16"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -14613,7 +14643,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A14" s="16"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -14640,7 +14670,7 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="21" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -14669,7 +14699,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A16" s="16"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -14696,7 +14726,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="63.75" customHeight="1">
-      <c r="A17" s="16"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -18699,21 +18729,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.399999999999999">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -18733,8 +18763,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.6">
-      <c r="A2" s="16"/>
-      <c r="B2" s="19"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -18775,7 +18805,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="21" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -18804,7 +18834,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="63.15" customHeight="1">
-      <c r="A4" s="16"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -18831,7 +18861,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A5" s="16"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -18858,7 +18888,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="62.4" customHeight="1">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="21" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -18887,7 +18917,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A7" s="16"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -18914,7 +18944,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A8" s="16"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -18941,7 +18971,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="21" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -18970,7 +19000,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A10" s="16"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -18997,7 +19027,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A11" s="16"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -19024,7 +19054,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="19" t="s">
         <v>84</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -19053,7 +19083,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A13" s="16"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -19080,7 +19110,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A14" s="16"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -19107,7 +19137,7 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="21" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -19136,7 +19166,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A16" s="16"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -19163,7 +19193,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="63.75" customHeight="1">
-      <c r="A17" s="16"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -23150,14 +23180,14 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D16" sqref="D16"/>
+      <selection pane="topRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16.33203125" style="6" customWidth="1"/>
     <col min="2" max="2" width="29.33203125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="31.6640625" style="24" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" style="17" customWidth="1"/>
     <col min="4" max="4" width="32" style="6" customWidth="1"/>
     <col min="5" max="5" width="31" style="6" customWidth="1"/>
     <col min="6" max="6" width="30.88671875" style="6" customWidth="1"/>
@@ -23166,21 +23196,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.399999999999999">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -23200,9 +23230,9 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.6">
-      <c r="A2" s="16"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="22" t="s">
+      <c r="A2" s="20"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="15" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -23242,206 +23272,236 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="21" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="5"/>
+      <c r="D3" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="63.15" customHeight="1">
-      <c r="A4" s="16"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="D4" s="5"/>
+      <c r="C4" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>155</v>
+      </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A5" s="16"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="62.4" customHeight="1">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="21" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>146</v>
+      </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A7" s="16"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>147</v>
+      </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A8" s="16"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>148</v>
+      </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="21" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>149</v>
+      </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A10" s="16"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A11" s="16"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="19" t="s">
         <v>84</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>146</v>
+      </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A13" s="16"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="D13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>151</v>
+      </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A14" s="16"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>152</v>
+      </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="21" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>153</v>
+      </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A16" s="16"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="D16" s="5"/>
+      <c r="D16" s="5" t="s">
+        <v>154</v>
+      </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="63.75" customHeight="1">
-      <c r="A17" s="16"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="5"/>
+      <c r="D17" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
@@ -27423,21 +27483,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.399999999999999">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -27457,8 +27517,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.6">
-      <c r="A2" s="16"/>
-      <c r="B2" s="19"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -27499,7 +27559,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="21" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -27512,7 +27572,7 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="63.15" customHeight="1">
-      <c r="A4" s="16"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -27523,7 +27583,7 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A5" s="16"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -27534,7 +27594,7 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="62.4" customHeight="1">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="21" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -27547,7 +27607,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A7" s="16"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -27558,7 +27618,7 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A8" s="16"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -27569,7 +27629,7 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="21" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -27582,7 +27642,7 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A10" s="16"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -27593,7 +27653,7 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A11" s="16"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -27604,7 +27664,7 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="19" t="s">
         <v>84</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -27617,7 +27677,7 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A13" s="16"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -27628,7 +27688,7 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A14" s="16"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -27639,7 +27699,7 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="21" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -27652,7 +27712,7 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A16" s="16"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -27663,7 +27723,7 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="63.75" customHeight="1">
-      <c r="A17" s="16"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -31650,21 +31710,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.399999999999999">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -31684,8 +31744,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.6">
-      <c r="A2" s="16"/>
-      <c r="B2" s="19"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -31726,7 +31786,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="21" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -31739,7 +31799,7 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="63.15" customHeight="1">
-      <c r="A4" s="16"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -31750,7 +31810,7 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A5" s="16"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -31761,7 +31821,7 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="62.4" customHeight="1">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="21" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -31774,7 +31834,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A7" s="16"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -31785,7 +31845,7 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A8" s="16"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -31796,7 +31856,7 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="21" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -31809,7 +31869,7 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A10" s="16"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -31820,7 +31880,7 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A11" s="16"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -31831,7 +31891,7 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="19" t="s">
         <v>84</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -31844,7 +31904,7 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A13" s="16"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -31855,7 +31915,7 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A14" s="16"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -31866,7 +31926,7 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="21" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -31879,7 +31939,7 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A16" s="16"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -31890,7 +31950,7 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="63.75" customHeight="1">
-      <c r="A17" s="16"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -35876,21 +35936,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.399999999999999">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -35910,8 +35970,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.6">
-      <c r="A2" s="16"/>
-      <c r="B2" s="19"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -35952,7 +36012,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="21" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -35965,7 +36025,7 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="63.15" customHeight="1">
-      <c r="A4" s="16"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
@@ -35976,7 +36036,7 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A5" s="16"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
@@ -35987,7 +36047,7 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="62.4" customHeight="1">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="21" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -36000,7 +36060,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A7" s="16"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
@@ -36011,7 +36071,7 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A8" s="16"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
@@ -36022,7 +36082,7 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="21" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -36035,7 +36095,7 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A10" s="16"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
@@ -36046,7 +36106,7 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A11" s="16"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
@@ -36057,7 +36117,7 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="19" t="s">
         <v>84</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -36070,7 +36130,7 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A13" s="16"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -36081,7 +36141,7 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A14" s="16"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -36092,7 +36152,7 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="21" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -36105,7 +36165,7 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A16" s="16"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -36116,7 +36176,7 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="63.75" customHeight="1">
-      <c r="A17" s="16"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hilya\OneDrive\Documents\GitHub\project-g1t8\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281910D9-80E2-4532-BD70-5710B54569DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B209BA7-26FE-4A79-AE2B-B1E422D6FD3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 5" sheetId="18" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="162">
   <si>
     <t>Question</t>
   </si>
@@ -504,6 +504,24 @@
   </si>
   <si>
     <t>Start on JSON API authentication</t>
+  </si>
+  <si>
+    <t>Completed clearing round 1 logic</t>
+  </si>
+  <si>
+    <t>Start on clearing round 2 logic (pt 1)</t>
+  </si>
+  <si>
+    <t>Started on JSON API authentication</t>
+  </si>
+  <si>
+    <t>Continue JSON API authentication</t>
+  </si>
+  <si>
+    <t>Updated the schedule and daily updates. Also edited clearing round 1 logic.</t>
+  </si>
+  <si>
+    <t>Continue updating the schedule, daily updates, and monitor JSON API authentication</t>
   </si>
 </sst>
 </file>
@@ -23178,9 +23196,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D6" sqref="D6"/>
+      <selection pane="topRight" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -23284,7 +23302,9 @@
       <c r="D3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>156</v>
+      </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
@@ -23299,7 +23319,9 @@
       <c r="D4" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>157</v>
+      </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
@@ -23314,7 +23336,9 @@
       <c r="D5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
@@ -23331,7 +23355,9 @@
       <c r="D6" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>156</v>
+      </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
@@ -23346,7 +23372,9 @@
       <c r="D7" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>157</v>
+      </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
     </row>
@@ -23361,7 +23389,9 @@
       <c r="D8" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
@@ -23378,7 +23408,9 @@
       <c r="D9" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>158</v>
+      </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
@@ -23393,7 +23425,9 @@
       <c r="D10" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>159</v>
+      </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
@@ -23408,7 +23442,9 @@
       <c r="D11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="5"/>
+      <c r="E11" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
@@ -23425,7 +23461,9 @@
       <c r="D12" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="E12" s="5"/>
+      <c r="E12" s="5" t="s">
+        <v>158</v>
+      </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
@@ -23440,7 +23478,9 @@
       <c r="D13" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="E13" s="5"/>
+      <c r="E13" s="5" t="s">
+        <v>159</v>
+      </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
@@ -23455,7 +23495,9 @@
       <c r="D14" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="E14" s="5"/>
+      <c r="E14" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
@@ -23472,7 +23514,9 @@
       <c r="D15" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="E15" s="5"/>
+      <c r="E15" s="5" t="s">
+        <v>160</v>
+      </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
     </row>
@@ -23487,7 +23531,9 @@
       <c r="D16" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="E16" s="5"/>
+      <c r="E16" s="5" t="s">
+        <v>161</v>
+      </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
     </row>
@@ -23502,7 +23548,9 @@
       <c r="D17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="5"/>
+      <c r="E17" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
     </row>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hilya\OneDrive\Documents\GitHub\project-g1t8\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B209BA7-26FE-4A79-AE2B-B1E422D6FD3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27187F4-A866-499E-A033-A7804788D802}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 5" sheetId="18" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="169">
   <si>
     <t>Question</t>
   </si>
@@ -523,6 +523,27 @@
   <si>
     <t>Continue updating the schedule, daily updates, and monitor JSON API authentication</t>
   </si>
+  <si>
+    <t>did authenticate, start and stop round for JSON</t>
+  </si>
+  <si>
+    <t>Updated the schedule and daily updates. Started on creating other test cases</t>
+  </si>
+  <si>
+    <t>Continue updating the schedule, daily updates.</t>
+  </si>
+  <si>
+    <t>Implement dump table for JSON and start on bootstrap for web service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">None </t>
+  </si>
+  <si>
+    <t>Implement round 2 clearing logic (pt1)</t>
+  </si>
+  <si>
+    <t>Planning the UI</t>
+  </si>
 </sst>
 </file>
 
@@ -23196,9 +23217,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -23305,7 +23326,9 @@
       <c r="E3" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="F3" s="5"/>
+      <c r="F3" s="5" t="s">
+        <v>168</v>
+      </c>
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="63.15" customHeight="1">
@@ -23322,7 +23345,9 @@
       <c r="E4" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="5" t="s">
+        <v>167</v>
+      </c>
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1">
@@ -23339,7 +23364,9 @@
       <c r="E5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="62.4" customHeight="1">
@@ -23358,7 +23385,9 @@
       <c r="E6" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="F6" s="5" t="s">
+        <v>168</v>
+      </c>
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1">
@@ -23375,7 +23404,9 @@
       <c r="E7" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>167</v>
+      </c>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1">
@@ -23392,7 +23423,9 @@
       <c r="E8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1">
@@ -23411,7 +23444,9 @@
       <c r="E9" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="F9" s="5" t="s">
+        <v>162</v>
+      </c>
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1">
@@ -23428,7 +23463,9 @@
       <c r="E10" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="F10" s="5"/>
+      <c r="F10" s="5" t="s">
+        <v>165</v>
+      </c>
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1">
@@ -23445,7 +23482,9 @@
       <c r="E11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="5"/>
+      <c r="F11" s="5" t="s">
+        <v>166</v>
+      </c>
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1">
@@ -23464,7 +23503,9 @@
       <c r="E12" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="F12" s="5"/>
+      <c r="F12" s="5" t="s">
+        <v>162</v>
+      </c>
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1">
@@ -23481,7 +23522,9 @@
       <c r="E13" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="F13" s="5"/>
+      <c r="F13" s="5" t="s">
+        <v>165</v>
+      </c>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1">
@@ -23498,7 +23541,9 @@
       <c r="E14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="5"/>
+      <c r="F14" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1">
@@ -23517,7 +23562,9 @@
       <c r="E15" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="F15" s="5"/>
+      <c r="F15" s="5" t="s">
+        <v>163</v>
+      </c>
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1">
@@ -23534,7 +23581,9 @@
       <c r="E16" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="F16" s="5"/>
+      <c r="F16" s="5" t="s">
+        <v>164</v>
+      </c>
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="63.75" customHeight="1">
@@ -23551,7 +23600,9 @@
       <c r="E17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="5"/>
+      <c r="F17" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7" ht="15">

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hilya\OneDrive\Documents\GitHub\project-g1t8\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27187F4-A866-499E-A033-A7804788D802}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C5092C-AC72-4230-BC01-40E819184924}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8964" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 5" sheetId="18" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="175">
   <si>
     <t>Question</t>
   </si>
@@ -544,6 +544,24 @@
   <si>
     <t>Planning the UI</t>
   </si>
+  <si>
+    <t>Redesigned authenticate to exclude token validation, start and stop to include token validation</t>
+  </si>
+  <si>
+    <t>Updated the schedule and daily updates. Started on creating other test cases. Also created table for admin_index to show results after rounds have closed.</t>
+  </si>
+  <si>
+    <t>Continue to complete round 2 clearing logic</t>
+  </si>
+  <si>
+    <t>Implemented round 2 realtime bidding  results and redesigned placebid.php</t>
+  </si>
+  <si>
+    <t>Redesigned authenticate to exclude token validation, start and stop to include token validation. Also created testcases.</t>
+  </si>
+  <si>
+    <t>Continue to implement dump table for JSON and start on bootstrap for web service</t>
+  </si>
 </sst>
 </file>
 
@@ -23218,8 +23236,8 @@
   <dimension ref="A1:Z1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E5" sqref="E5"/>
+      <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -23329,7 +23347,9 @@
       <c r="F3" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="G3" s="5"/>
+      <c r="G3" s="5" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="4" spans="1:26" ht="63.15" customHeight="1">
       <c r="A4" s="20"/>
@@ -23348,7 +23368,9 @@
       <c r="F4" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="G4" s="5"/>
+      <c r="G4" s="5" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1">
       <c r="A5" s="20"/>
@@ -23367,7 +23389,9 @@
       <c r="F5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="5"/>
+      <c r="G5" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="1:26" ht="62.4" customHeight="1">
       <c r="A6" s="21" t="s">
@@ -23388,7 +23412,9 @@
       <c r="F6" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="G6" s="5"/>
+      <c r="G6" s="5" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1">
       <c r="A7" s="20"/>
@@ -23407,7 +23433,9 @@
       <c r="F7" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="G7" s="5"/>
+      <c r="G7" s="5" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1">
       <c r="A8" s="20"/>
@@ -23426,7 +23454,9 @@
       <c r="F8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="5"/>
+      <c r="G8" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1">
       <c r="A9" s="21" t="s">
@@ -23447,7 +23477,9 @@
       <c r="F9" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="G9" s="5"/>
+      <c r="G9" s="5" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1">
       <c r="A10" s="20"/>
@@ -23466,7 +23498,9 @@
       <c r="F10" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="G10" s="5"/>
+      <c r="G10" s="5" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1">
       <c r="A11" s="20"/>
@@ -23485,7 +23519,9 @@
       <c r="F11" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="G11" s="5"/>
+      <c r="G11" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1">
       <c r="A12" s="19" t="s">
@@ -23506,7 +23542,9 @@
       <c r="F12" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="G12" s="5"/>
+      <c r="G12" s="5" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1">
       <c r="A13" s="20"/>
@@ -23525,7 +23563,9 @@
       <c r="F13" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="G13" s="5"/>
+      <c r="G13" s="5" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1">
       <c r="A14" s="20"/>
@@ -23544,7 +23584,9 @@
       <c r="F14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="5"/>
+      <c r="G14" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1">
       <c r="A15" s="21" t="s">
@@ -23565,7 +23607,9 @@
       <c r="F15" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="G15" s="5"/>
+      <c r="G15" s="5" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1">
       <c r="A16" s="20"/>
@@ -23584,7 +23628,9 @@
       <c r="F16" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="G16" s="5"/>
+      <c r="G16" s="5" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="63.75" customHeight="1">
       <c r="A17" s="20"/>
@@ -23603,7 +23649,9 @@
       <c r="F17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="5"/>
+      <c r="G17" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="15">
       <c r="A18" s="9"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hilya\OneDrive\Documents\GitHub\project-g1t8\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C5092C-AC72-4230-BC01-40E819184924}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E83AC6-FC09-452D-BE9E-E6E409DA848E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8964" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="176">
   <si>
     <t>Question</t>
   </si>
@@ -562,6 +562,9 @@
   <si>
     <t>Continue to implement dump table for JSON and start on bootstrap for web service</t>
   </si>
+  <si>
+    <t>Continue updating the schedule, daily updates. Created testcase to test results table on admin_index.php</t>
+  </si>
 </sst>
 </file>
 
@@ -23236,8 +23239,8 @@
   <dimension ref="A1:Z1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G16" sqref="G16"/>
+      <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H16" sqref="H16:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -23350,6 +23353,9 @@
       <c r="G3" s="5" t="s">
         <v>172</v>
       </c>
+      <c r="H3" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="4" spans="1:26" ht="63.15" customHeight="1">
       <c r="A4" s="20"/>
@@ -23371,6 +23377,9 @@
       <c r="G4" s="5" t="s">
         <v>171</v>
       </c>
+      <c r="H4" s="5" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1">
       <c r="A5" s="20"/>
@@ -23392,6 +23401,9 @@
       <c r="G5" s="5" t="s">
         <v>27</v>
       </c>
+      <c r="H5" s="11" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="1:26" ht="62.4" customHeight="1">
       <c r="A6" s="21" t="s">
@@ -23414,6 +23426,9 @@
       </c>
       <c r="G6" s="5" t="s">
         <v>172</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1">
@@ -23436,6 +23451,9 @@
       <c r="G7" s="5" t="s">
         <v>171</v>
       </c>
+      <c r="H7" s="5" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1">
       <c r="A8" s="20"/>
@@ -23457,6 +23475,9 @@
       <c r="G8" s="5" t="s">
         <v>27</v>
       </c>
+      <c r="H8" s="11" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1">
       <c r="A9" s="21" t="s">
@@ -23479,6 +23500,9 @@
       </c>
       <c r="G9" s="5" t="s">
         <v>169</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1">
@@ -23501,6 +23525,9 @@
       <c r="G10" s="5" t="s">
         <v>174</v>
       </c>
+      <c r="H10" s="5" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1">
       <c r="A11" s="20"/>
@@ -23522,6 +23549,9 @@
       <c r="G11" s="5" t="s">
         <v>27</v>
       </c>
+      <c r="H11" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1">
       <c r="A12" s="19" t="s">
@@ -23544,6 +23574,9 @@
       </c>
       <c r="G12" s="5" t="s">
         <v>173</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1">
@@ -23566,6 +23599,9 @@
       <c r="G13" s="5" t="s">
         <v>174</v>
       </c>
+      <c r="H13" s="5" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1">
       <c r="A14" s="20"/>
@@ -23587,6 +23623,9 @@
       <c r="G14" s="5" t="s">
         <v>27</v>
       </c>
+      <c r="H14" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1">
       <c r="A15" s="21" t="s">
@@ -23609,6 +23648,9 @@
       </c>
       <c r="G15" s="5" t="s">
         <v>170</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1">
@@ -23631,8 +23673,11 @@
       <c r="G16" s="5" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="63.75" customHeight="1">
+      <c r="H16" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="63.75" customHeight="1">
       <c r="A17" s="20"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
@@ -23652,64 +23697,67 @@
       <c r="G17" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="15">
+      <c r="H17" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15">
       <c r="A18" s="9"/>
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="1:7" ht="15">
+    <row r="19" spans="1:8" ht="15">
       <c r="A19" s="9"/>
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="1:7" ht="15">
+    <row r="20" spans="1:8" ht="15">
       <c r="A20" s="9"/>
       <c r="B20" s="4"/>
     </row>
-    <row r="21" spans="1:7" ht="15">
+    <row r="21" spans="1:8" ht="15">
       <c r="A21" s="9"/>
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:7" ht="15">
+    <row r="22" spans="1:8" ht="15">
       <c r="A22" s="9"/>
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="1:7" ht="15">
+    <row r="23" spans="1:8" ht="15">
       <c r="A23" s="9"/>
       <c r="B23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="15">
+    <row r="24" spans="1:8" ht="15">
       <c r="A24" s="9"/>
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="1:7" ht="15">
+    <row r="25" spans="1:8" ht="15">
       <c r="A25" s="9"/>
       <c r="B25" s="4"/>
     </row>
-    <row r="26" spans="1:7" ht="15">
+    <row r="26" spans="1:8" ht="15">
       <c r="A26" s="9"/>
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="1:7" ht="15">
+    <row r="27" spans="1:8" ht="15">
       <c r="A27" s="9"/>
       <c r="B27" s="4"/>
     </row>
-    <row r="28" spans="1:7" ht="15">
+    <row r="28" spans="1:8" ht="15">
       <c r="A28" s="9"/>
       <c r="B28" s="4"/>
     </row>
-    <row r="29" spans="1:7" ht="15">
+    <row r="29" spans="1:8" ht="15">
       <c r="A29" s="9"/>
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:7" ht="15">
+    <row r="30" spans="1:8" ht="15">
       <c r="A30" s="9"/>
       <c r="B30" s="4"/>
     </row>
-    <row r="31" spans="1:7" ht="15">
+    <row r="31" spans="1:8" ht="15">
       <c r="A31" s="9"/>
       <c r="B31" s="4"/>
     </row>
-    <row r="32" spans="1:7" ht="15">
+    <row r="32" spans="1:8" ht="15">
       <c r="A32" s="9"/>
       <c r="B32" s="4"/>
     </row>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hilya\OneDrive\Documents\GitHub\project-g1t8\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E83AC6-FC09-452D-BE9E-E6E409DA848E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD67F6E-2C8D-43FD-92F5-865D32CC96E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8964" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 5" sheetId="18" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="181">
   <si>
     <t>Question</t>
   </si>
@@ -565,6 +565,21 @@
   <si>
     <t>Continue updating the schedule, daily updates. Created testcase to test results table on admin_index.php</t>
   </si>
+  <si>
+    <t>Completed update_bid for JSON and has started on delete_bid for JSON</t>
+  </si>
+  <si>
+    <t>Started on round 2 cloearing logic</t>
+  </si>
+  <si>
+    <t>Start on update bi and delete bid for JSON</t>
+  </si>
+  <si>
+    <t>Start on update-bid, delete-bid, drop-section for JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Updated the schedule, daily updates. </t>
+  </si>
 </sst>
 </file>
 
@@ -23238,9 +23253,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H16" sqref="H16:H17"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -23356,6 +23371,9 @@
       <c r="H3" s="5" t="s">
         <v>29</v>
       </c>
+      <c r="I3" s="11" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="4" spans="1:26" ht="63.15" customHeight="1">
       <c r="A4" s="20"/>
@@ -23380,6 +23398,9 @@
       <c r="H4" s="5" t="s">
         <v>171</v>
       </c>
+      <c r="I4" s="5" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1">
       <c r="A5" s="20"/>
@@ -23404,6 +23425,9 @@
       <c r="H5" s="11" t="s">
         <v>27</v>
       </c>
+      <c r="I5" s="11" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="1:26" ht="62.4" customHeight="1">
       <c r="A6" s="21" t="s">
@@ -23429,6 +23453,9 @@
       </c>
       <c r="H6" s="5" t="s">
         <v>29</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1">
@@ -23454,6 +23481,9 @@
       <c r="H7" s="5" t="s">
         <v>171</v>
       </c>
+      <c r="I7" s="5" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1">
       <c r="A8" s="20"/>
@@ -23478,6 +23508,9 @@
       <c r="H8" s="11" t="s">
         <v>27</v>
       </c>
+      <c r="I8" s="11" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1">
       <c r="A9" s="21" t="s">
@@ -23503,6 +23536,9 @@
       </c>
       <c r="H9" s="5" t="s">
         <v>29</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1">
@@ -23526,6 +23562,9 @@
         <v>174</v>
       </c>
       <c r="H10" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="I10" s="5" t="s">
         <v>174</v>
       </c>
     </row>
@@ -23552,6 +23591,9 @@
       <c r="H11" s="5" t="s">
         <v>27</v>
       </c>
+      <c r="I11" s="11" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1">
       <c r="A12" s="19" t="s">
@@ -23577,6 +23619,9 @@
       </c>
       <c r="H12" s="5" t="s">
         <v>29</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1">
@@ -23600,8 +23645,9 @@
         <v>174</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>174</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="I13" s="11"/>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1">
       <c r="A14" s="20"/>
@@ -23626,6 +23672,9 @@
       <c r="H14" s="5" t="s">
         <v>27</v>
       </c>
+      <c r="I14" s="11" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1">
       <c r="A15" s="21" t="s">
@@ -23651,6 +23700,9 @@
       </c>
       <c r="H15" s="5" t="s">
         <v>175</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1">
@@ -23676,8 +23728,11 @@
       <c r="H16" s="5" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="63.75" customHeight="1">
+      <c r="I16" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="63.75" customHeight="1">
       <c r="A17" s="20"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
@@ -23700,64 +23755,67 @@
       <c r="H17" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="15">
+      <c r="I17" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15">
       <c r="A18" s="9"/>
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="1:8" ht="15">
+    <row r="19" spans="1:9" ht="15">
       <c r="A19" s="9"/>
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="1:8" ht="15">
+    <row r="20" spans="1:9" ht="15">
       <c r="A20" s="9"/>
       <c r="B20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="15">
+    <row r="21" spans="1:9" ht="15">
       <c r="A21" s="9"/>
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:8" ht="15">
+    <row r="22" spans="1:9" ht="15">
       <c r="A22" s="9"/>
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="1:8" ht="15">
+    <row r="23" spans="1:9" ht="15">
       <c r="A23" s="9"/>
       <c r="B23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="15">
+    <row r="24" spans="1:9" ht="15">
       <c r="A24" s="9"/>
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="1:8" ht="15">
+    <row r="25" spans="1:9" ht="15">
       <c r="A25" s="9"/>
       <c r="B25" s="4"/>
     </row>
-    <row r="26" spans="1:8" ht="15">
+    <row r="26" spans="1:9" ht="15">
       <c r="A26" s="9"/>
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="1:8" ht="15">
+    <row r="27" spans="1:9" ht="15">
       <c r="A27" s="9"/>
       <c r="B27" s="4"/>
     </row>
-    <row r="28" spans="1:8" ht="15">
+    <row r="28" spans="1:9" ht="15">
       <c r="A28" s="9"/>
       <c r="B28" s="4"/>
     </row>
-    <row r="29" spans="1:8" ht="15">
+    <row r="29" spans="1:9" ht="15">
       <c r="A29" s="9"/>
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:8" ht="15">
+    <row r="30" spans="1:9" ht="15">
       <c r="A30" s="9"/>
       <c r="B30" s="4"/>
     </row>
-    <row r="31" spans="1:8" ht="15">
+    <row r="31" spans="1:9" ht="15">
       <c r="A31" s="9"/>
       <c r="B31" s="4"/>
     </row>
-    <row r="32" spans="1:8" ht="15">
+    <row r="32" spans="1:9" ht="15">
       <c r="A32" s="9"/>
       <c r="B32" s="4"/>
     </row>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hilya\OneDrive\Documents\GitHub\project-g1t8\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD67F6E-2C8D-43FD-92F5-865D32CC96E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5C585B-0028-4C09-8F2C-E584C1E8A24F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8964" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 5" sheetId="18" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="176">
   <si>
     <t>Question</t>
   </si>
@@ -467,31 +467,7 @@
     <t>Updated schedule</t>
   </si>
   <si>
-    <t>Implement clearing round 1 logic</t>
-  </si>
-  <si>
-    <t>Implement JSON API authentication</t>
-  </si>
-  <si>
-    <t>Continue updating the schedule, daily updates, and also implement clearing round 1 logic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Started on clearing round 1 logic </t>
-  </si>
-  <si>
-    <t>Will continue completing clearing round 1 logic</t>
-  </si>
-  <si>
     <t>Jie Min was struggling coding</t>
-  </si>
-  <si>
-    <t>Updated dropbid and dropsection and debugged it.</t>
-  </si>
-  <si>
-    <t>Continue to start on JSON API authentication</t>
-  </si>
-  <si>
-    <t>Continue to complete clearing round 1 logic</t>
   </si>
   <si>
     <t>Sky was struggling with coding</t>
@@ -569,16 +545,25 @@
     <t>Completed update_bid for JSON and has started on delete_bid for JSON</t>
   </si>
   <si>
-    <t>Started on round 2 cloearing logic</t>
-  </si>
-  <si>
-    <t>Start on update bi and delete bid for JSON</t>
-  </si>
-  <si>
     <t>Start on update-bid, delete-bid, drop-section for JSON</t>
   </si>
   <si>
     <t xml:space="preserve">Updated the schedule, daily updates. </t>
+  </si>
+  <si>
+    <t>Start on clearing round 1 logic</t>
+  </si>
+  <si>
+    <t>Completed round 2 clearing logic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Help with JSON </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Had to switch pairs for PP (Steffi and Jie Min, Hui Sin and Sky) </t>
+  </si>
+  <si>
+    <t>Start on update bid and delete bid for JSON</t>
   </si>
 </sst>
 </file>
@@ -18786,9 +18771,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I6" sqref="I6:I8"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -23253,9 +23238,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -23360,19 +23345,19 @@
         <v>29</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>29</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="63.15" customHeight="1">
@@ -23384,22 +23369,22 @@
         <v>29</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1">
@@ -23440,22 +23425,22 @@
         <v>29</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>146</v>
+        <v>29</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>29</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1">
@@ -23464,25 +23449,25 @@
         <v>8</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>143</v>
+        <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1">
@@ -23494,7 +23479,7 @@
         <v>27</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>27</v>
@@ -23523,22 +23508,22 @@
         <v>29</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>149</v>
+        <v>29</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>29</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1">
@@ -23547,25 +23532,25 @@
         <v>8</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>144</v>
+        <v>29</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1">
@@ -23583,7 +23568,7 @@
         <v>27</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>27</v>
@@ -23592,7 +23577,7 @@
         <v>27</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1">
@@ -23606,22 +23591,22 @@
         <v>29</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>146</v>
+        <v>29</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>29</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1">
@@ -23630,22 +23615,22 @@
         <v>8</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>143</v>
+        <v>29</v>
       </c>
       <c r="D13" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>159</v>
-      </c>
       <c r="F13" s="5" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="I13" s="11"/>
     </row>
@@ -23658,7 +23643,7 @@
         <v>27</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>27</v>
@@ -23687,22 +23672,22 @@
         <v>29</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="G15" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="I15" s="5" t="s">
         <v>170</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1">
@@ -23711,25 +23696,25 @@
         <v>8</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>145</v>
+        <v>42</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="63.75" customHeight="1">
@@ -23741,7 +23726,7 @@
         <v>27</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>27</v>
+        <v>174</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>27</v>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hilya\OneDrive\Documents\GitHub\project-g1t8\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5C585B-0028-4C09-8F2C-E584C1E8A24F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E669AC-FFD3-4F29-A379-325247D4F9E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8964" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 5" sheetId="18" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="180">
   <si>
     <t>Question</t>
   </si>
@@ -545,9 +545,6 @@
     <t>Completed update_bid for JSON and has started on delete_bid for JSON</t>
   </si>
   <si>
-    <t>Start on update-bid, delete-bid, drop-section for JSON</t>
-  </si>
-  <si>
     <t xml:space="preserve">Updated the schedule, daily updates. </t>
   </si>
   <si>
@@ -564,6 +561,21 @@
   </si>
   <si>
     <t>Start on update bid and delete bid for JSON</t>
+  </si>
+  <si>
+    <t>Replaced round1_clearing with process_bids. Completed round 1 and round 2 bidding and clearing logic</t>
+  </si>
+  <si>
+    <t>Test cases for JSON</t>
+  </si>
+  <si>
+    <t>Completed drop_section. Edited update_bid and delete_bid</t>
+  </si>
+  <si>
+    <t>Start on Dump table</t>
+  </si>
+  <si>
+    <t>Continue updating the schedule, daily updates. Help with other JSON API.</t>
   </si>
 </sst>
 </file>
@@ -23238,9 +23250,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G12" sqref="G12"/>
+      <selection pane="topRight" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -23357,7 +23369,7 @@
         <v>29</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="63.15" customHeight="1">
@@ -23369,7 +23381,7 @@
         <v>29</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>149</v>
@@ -23384,7 +23396,7 @@
         <v>163</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1">
@@ -23440,7 +23452,7 @@
         <v>29</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1">
@@ -23452,7 +23464,7 @@
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>149</v>
@@ -23467,7 +23479,7 @@
         <v>163</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1">
@@ -23547,7 +23559,7 @@
         <v>166</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>166</v>
@@ -23577,7 +23589,7 @@
         <v>27</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>169</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1">
@@ -23630,9 +23642,11 @@
         <v>166</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="I13" s="11"/>
+        <v>174</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1">
       <c r="A14" s="20"/>
@@ -23687,7 +23701,7 @@
         <v>167</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1">
@@ -23726,7 +23740,7 @@
         <v>27</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>27</v>
@@ -27703,9 +27717,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A12" sqref="A12:A14"/>
+      <selection pane="topRight" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -27803,7 +27817,9 @@
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="5" t="s">
+        <v>175</v>
+      </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -27814,7 +27830,9 @@
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>176</v>
+      </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -27825,7 +27843,9 @@
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -27838,7 +27858,9 @@
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="5" t="s">
+        <v>175</v>
+      </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -27849,7 +27871,9 @@
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>176</v>
+      </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -27860,7 +27884,9 @@
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -27873,7 +27899,9 @@
       <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>177</v>
+      </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -27884,7 +27912,9 @@
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>178</v>
+      </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -27895,7 +27925,9 @@
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="5"/>
+      <c r="C11" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -27908,7 +27940,9 @@
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="5"/>
+      <c r="C12" s="5" t="s">
+        <v>177</v>
+      </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -27919,7 +27953,9 @@
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="5"/>
+      <c r="C13" s="5" t="s">
+        <v>178</v>
+      </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -27930,7 +27966,9 @@
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="5"/>
+      <c r="C14" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -27943,7 +27981,9 @@
       <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="5"/>
+      <c r="C15" s="5" t="s">
+        <v>156</v>
+      </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -27954,7 +27994,9 @@
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="5"/>
+      <c r="C16" s="5" t="s">
+        <v>179</v>
+      </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -27965,7 +28007,9 @@
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="5"/>
+      <c r="C17" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hilya\OneDrive\Documents\GitHub\project-g1t8\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E669AC-FFD3-4F29-A379-325247D4F9E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C36EE6-723F-43FA-BA6E-851463457EEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8964" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 5" sheetId="18" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="189">
   <si>
     <t>Question</t>
   </si>
@@ -577,6 +577,33 @@
   <si>
     <t>Continue updating the schedule, daily updates. Help with other JSON API.</t>
   </si>
+  <si>
+    <t xml:space="preserve">Continue updating the schedule, daily updates. </t>
+  </si>
+  <si>
+    <t>Updated data.sql and debugged JSON</t>
+  </si>
+  <si>
+    <t>Created testcases for dump_table JSON</t>
+  </si>
+  <si>
+    <t>Started on user_dump</t>
+  </si>
+  <si>
+    <t>Started on user_dump and completed section_dump</t>
+  </si>
+  <si>
+    <t>Complete user_dump and create test cases for Round 2 logic</t>
+  </si>
+  <si>
+    <t>Test and debug authentication, start and stop round</t>
+  </si>
+  <si>
+    <t>Test cases for JSON and Test and debug authentication, start and stop round</t>
+  </si>
+  <si>
+    <t>Test and debug round clearing logic</t>
+  </si>
 </sst>
 </file>
 
@@ -27719,7 +27746,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C18" sqref="C18"/>
+      <selection pane="topRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -27820,7 +27847,9 @@
       <c r="C3" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="D3" s="5"/>
+      <c r="D3" s="5" t="s">
+        <v>181</v>
+      </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -27833,7 +27862,9 @@
       <c r="C4" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>186</v>
+      </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -27846,7 +27877,9 @@
       <c r="C5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -27861,7 +27894,9 @@
       <c r="C6" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>182</v>
+      </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -27874,7 +27909,9 @@
       <c r="C7" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>187</v>
+      </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
@@ -27887,7 +27924,9 @@
       <c r="C8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
@@ -27902,7 +27941,9 @@
       <c r="C9" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
@@ -27915,7 +27956,9 @@
       <c r="C10" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>188</v>
+      </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -27928,7 +27971,9 @@
       <c r="C11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -27943,7 +27988,9 @@
       <c r="C12" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>183</v>
+      </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
@@ -27956,7 +28003,9 @@
       <c r="C13" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="D13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>185</v>
+      </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
@@ -27969,7 +28018,9 @@
       <c r="C14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
@@ -27984,7 +28035,9 @@
       <c r="C15" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="D15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>184</v>
+      </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
@@ -27997,7 +28050,9 @@
       <c r="C16" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="D16" s="5"/>
+      <c r="D16" s="5" t="s">
+        <v>180</v>
+      </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
@@ -28010,7 +28065,9 @@
       <c r="C17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="5"/>
+      <c r="D17" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hilya\OneDrive\Documents\GitHub\project-g1t8\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C36EE6-723F-43FA-BA6E-851463457EEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F97A29-2264-401A-808D-F74631B1366D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8964" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="196">
   <si>
     <t>Question</t>
   </si>
@@ -604,6 +604,27 @@
   <si>
     <t>Test and debug round clearing logic</t>
   </si>
+  <si>
+    <t>Tested and debugged</t>
+  </si>
+  <si>
+    <t>Create dump table</t>
+  </si>
+  <si>
+    <t>Created test cases and debugged</t>
+  </si>
+  <si>
+    <t>Completed user_dump and created test cases and edited bug metrics</t>
+  </si>
+  <si>
+    <t>Continue to run tests and debug</t>
+  </si>
+  <si>
+    <t>Continue updating the schedule, daily updates. Create bid status. Start on deployment.</t>
+  </si>
+  <si>
+    <t>Updated the schedule, daily updates.</t>
+  </si>
 </sst>
 </file>
 
@@ -27744,9 +27765,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -27850,7 +27871,9 @@
       <c r="D3" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>189</v>
+      </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
@@ -27865,7 +27888,9 @@
       <c r="D4" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
@@ -27880,7 +27905,9 @@
       <c r="D5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
@@ -27897,7 +27924,9 @@
       <c r="D6" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>191</v>
+      </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
@@ -27912,7 +27941,9 @@
       <c r="D7" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
     </row>
@@ -27927,7 +27958,9 @@
       <c r="D8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
@@ -27944,7 +27977,9 @@
       <c r="D9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>188</v>
+      </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
@@ -27959,7 +27994,9 @@
       <c r="D10" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
@@ -27974,7 +28011,9 @@
       <c r="D11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="5"/>
+      <c r="E11" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
@@ -27991,7 +28030,9 @@
       <c r="D12" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="E12" s="5"/>
+      <c r="E12" s="5" t="s">
+        <v>192</v>
+      </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
@@ -28006,7 +28047,9 @@
       <c r="D13" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="E13" s="5"/>
+      <c r="E13" s="5" t="s">
+        <v>193</v>
+      </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
@@ -28021,7 +28064,9 @@
       <c r="D14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="5"/>
+      <c r="E14" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
@@ -28033,12 +28078,14 @@
         <v>7</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="E15" s="5"/>
+      <c r="E15" s="5" t="s">
+        <v>195</v>
+      </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
     </row>
@@ -28053,7 +28100,9 @@
       <c r="D16" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="E16" s="5"/>
+      <c r="E16" s="5" t="s">
+        <v>194</v>
+      </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
     </row>
@@ -28068,7 +28117,9 @@
       <c r="D17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="5"/>
+      <c r="E17" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
     </row>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hilya\OneDrive\Documents\GitHub\project-g1t8\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F97A29-2264-401A-808D-F74631B1366D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71CCE09-FABE-48FA-BCFB-7F4BE6F51487}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8964" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8964" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 5" sheetId="18" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="202">
   <si>
     <t>Question</t>
   </si>
@@ -625,6 +625,24 @@
   <si>
     <t>Updated the schedule, daily updates.</t>
   </si>
+  <si>
+    <t>updated sql script, tested and debugged</t>
+  </si>
+  <si>
+    <t>updated sql script, tested and debugged. Created bootstrap test case files</t>
+  </si>
+  <si>
+    <t>Debugging and deployment</t>
+  </si>
+  <si>
+    <t>Test and debugged round 2 logic. Updated process_placebid/BidDAO/update-bid/bid-dump/user-dump</t>
+  </si>
+  <si>
+    <t>Continue updating the schedule, daily updates. Test and debugged round 2 logic. Updated process_placebid/BidDAO/update-bid/bid-dump/user-dump</t>
+  </si>
+  <si>
+    <t>Continue updating the schedule, daily updates. Debugging and start on deployment.</t>
+  </si>
 </sst>
 </file>
 
@@ -27765,9 +27783,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -27874,7 +27892,9 @@
       <c r="E3" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="F3" s="5"/>
+      <c r="F3" s="5" t="s">
+        <v>196</v>
+      </c>
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="63.15" customHeight="1">
@@ -27891,7 +27911,9 @@
       <c r="E4" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="5" t="s">
+        <v>198</v>
+      </c>
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1">
@@ -27908,7 +27930,9 @@
       <c r="E5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="62.4" customHeight="1">
@@ -27927,7 +27951,9 @@
       <c r="E6" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="F6" s="5" t="s">
+        <v>197</v>
+      </c>
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1">
@@ -27944,7 +27970,9 @@
       <c r="E7" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>198</v>
+      </c>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1">
@@ -27961,7 +27989,9 @@
       <c r="E8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1">
@@ -27980,7 +28010,9 @@
       <c r="E9" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="F9" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1">
@@ -27997,7 +28029,9 @@
       <c r="E10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="5"/>
+      <c r="F10" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1">
@@ -28014,7 +28048,9 @@
       <c r="E11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="5"/>
+      <c r="F11" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1">
@@ -28033,7 +28069,9 @@
       <c r="E12" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="F12" s="5"/>
+      <c r="F12" s="5" t="s">
+        <v>199</v>
+      </c>
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1">
@@ -28050,7 +28088,9 @@
       <c r="E13" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="F13" s="5"/>
+      <c r="F13" s="5" t="s">
+        <v>198</v>
+      </c>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1">
@@ -28067,7 +28107,9 @@
       <c r="E14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="5"/>
+      <c r="F14" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1">
@@ -28086,7 +28128,9 @@
       <c r="E15" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="F15" s="5"/>
+      <c r="F15" s="5" t="s">
+        <v>200</v>
+      </c>
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1">
@@ -28103,7 +28147,9 @@
       <c r="E16" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="F16" s="5"/>
+      <c r="F16" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="63.75" customHeight="1">
@@ -28120,7 +28166,9 @@
       <c r="E17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="5"/>
+      <c r="F17" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7" ht="15">

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hilya\OneDrive\Documents\GitHub\project-g1t8\metrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\project-g1t8\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71CCE09-FABE-48FA-BCFB-7F4BE6F51487}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E6D7526-BEBB-4BCC-A929-F248798CA819}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8964" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 5" sheetId="18" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="206">
   <si>
     <t>Question</t>
   </si>
@@ -643,6 +643,18 @@
   <si>
     <t>Continue updating the schedule, daily updates. Debugging and start on deployment.</t>
   </si>
+  <si>
+    <t>Update the schedule and daily updates</t>
+  </si>
+  <si>
+    <t>Debugging with Steffi</t>
+  </si>
+  <si>
+    <t>Updated the schedule, daily updates. Debugging and deployment.</t>
+  </si>
+  <si>
+    <t>Debugging, updated bug metrics</t>
+  </si>
 </sst>
 </file>
 
@@ -27783,9 +27795,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -27895,7 +27907,9 @@
       <c r="F3" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="G3" s="5"/>
+      <c r="G3" s="5" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="4" spans="1:26" ht="63.15" customHeight="1">
       <c r="A4" s="20"/>
@@ -27914,7 +27928,9 @@
       <c r="F4" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="G4" s="5"/>
+      <c r="G4" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1">
       <c r="A5" s="20"/>
@@ -27933,7 +27949,9 @@
       <c r="F5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="5"/>
+      <c r="G5" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="1:26" ht="62.4" customHeight="1">
       <c r="A6" s="21" t="s">
@@ -27954,7 +27972,9 @@
       <c r="F6" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="G6" s="5"/>
+      <c r="G6" s="5" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1">
       <c r="A7" s="20"/>
@@ -27973,7 +27993,9 @@
       <c r="F7" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="G7" s="5"/>
+      <c r="G7" s="5" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1">
       <c r="A8" s="20"/>
@@ -27992,7 +28014,9 @@
       <c r="F8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="5"/>
+      <c r="G8" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1">
       <c r="A9" s="21" t="s">
@@ -28013,7 +28037,9 @@
       <c r="F9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="5"/>
+      <c r="G9" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1">
       <c r="A10" s="20"/>
@@ -28032,7 +28058,9 @@
       <c r="F10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="5"/>
+      <c r="G10" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1">
       <c r="A11" s="20"/>
@@ -28051,7 +28079,9 @@
       <c r="F11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="5"/>
+      <c r="G11" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1">
       <c r="A12" s="19" t="s">
@@ -28072,7 +28102,9 @@
       <c r="F12" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G12" s="5"/>
+      <c r="G12" s="5" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1">
       <c r="A13" s="20"/>
@@ -28091,7 +28123,9 @@
       <c r="F13" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="G13" s="5"/>
+      <c r="G13" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1">
       <c r="A14" s="20"/>
@@ -28110,7 +28144,9 @@
       <c r="F14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="5"/>
+      <c r="G14" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1">
       <c r="A15" s="21" t="s">
@@ -28131,7 +28167,9 @@
       <c r="F15" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="G15" s="5"/>
+      <c r="G15" s="5" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1">
       <c r="A16" s="20"/>
@@ -28150,7 +28188,9 @@
       <c r="F16" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="G16" s="5"/>
+      <c r="G16" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="63.75" customHeight="1">
       <c r="A17" s="20"/>
@@ -28169,7 +28209,9 @@
       <c r="F17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="5"/>
+      <c r="G17" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="15">
       <c r="A18" s="9"/>
@@ -32130,7 +32172,7 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="A12" sqref="A12:A14"/>
     </sheetView>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\project-g1t8\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E6D7526-BEBB-4BCC-A929-F248798CA819}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F963631-AFC2-4060-9497-8DB469FDE4AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="206">
   <si>
     <t>Question</t>
   </si>
@@ -27795,9 +27795,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H16" sqref="H16"/>
+      <selection pane="topRight" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -27910,6 +27910,9 @@
       <c r="G3" s="5" t="s">
         <v>198</v>
       </c>
+      <c r="H3" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="4" spans="1:26" ht="63.15" customHeight="1">
       <c r="A4" s="20"/>
@@ -27931,6 +27934,9 @@
       <c r="G4" s="5" t="s">
         <v>29</v>
       </c>
+      <c r="H4" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1">
       <c r="A5" s="20"/>
@@ -27952,6 +27958,9 @@
       <c r="G5" s="5" t="s">
         <v>27</v>
       </c>
+      <c r="H5" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="1:26" ht="62.4" customHeight="1">
       <c r="A6" s="21" t="s">
@@ -27974,6 +27983,9 @@
       </c>
       <c r="G6" s="5" t="s">
         <v>203</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1">
@@ -27996,6 +28008,9 @@
       <c r="G7" s="5" t="s">
         <v>202</v>
       </c>
+      <c r="H7" s="5" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1">
       <c r="A8" s="20"/>
@@ -28017,6 +28032,9 @@
       <c r="G8" s="5" t="s">
         <v>27</v>
       </c>
+      <c r="H8" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1">
       <c r="A9" s="21" t="s">
@@ -28038,6 +28056,9 @@
         <v>29</v>
       </c>
       <c r="G9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -28061,6 +28082,9 @@
       <c r="G10" s="5" t="s">
         <v>29</v>
       </c>
+      <c r="H10" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1">
       <c r="A11" s="20"/>
@@ -28082,6 +28106,9 @@
       <c r="G11" s="5" t="s">
         <v>27</v>
       </c>
+      <c r="H11" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1">
       <c r="A12" s="19" t="s">
@@ -28104,6 +28131,9 @@
       </c>
       <c r="G12" s="5" t="s">
         <v>205</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1">
@@ -28126,6 +28156,9 @@
       <c r="G13" s="5" t="s">
         <v>29</v>
       </c>
+      <c r="H13" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1">
       <c r="A14" s="20"/>
@@ -28147,6 +28180,9 @@
       <c r="G14" s="5" t="s">
         <v>27</v>
       </c>
+      <c r="H14" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1">
       <c r="A15" s="21" t="s">
@@ -28169,6 +28205,9 @@
       </c>
       <c r="G15" s="5" t="s">
         <v>204</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1">
@@ -28191,8 +28230,11 @@
       <c r="G16" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="63.75" customHeight="1">
+      <c r="H16" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="63.75" customHeight="1">
       <c r="A17" s="20"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
@@ -28212,64 +28254,67 @@
       <c r="G17" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="15">
+      <c r="H17" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15">
       <c r="A18" s="9"/>
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="1:7" ht="15">
+    <row r="19" spans="1:8" ht="15">
       <c r="A19" s="9"/>
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="1:7" ht="15">
+    <row r="20" spans="1:8" ht="15">
       <c r="A20" s="9"/>
       <c r="B20" s="4"/>
     </row>
-    <row r="21" spans="1:7" ht="15">
+    <row r="21" spans="1:8" ht="15">
       <c r="A21" s="9"/>
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:7" ht="15">
+    <row r="22" spans="1:8" ht="15">
       <c r="A22" s="9"/>
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="1:7" ht="15">
+    <row r="23" spans="1:8" ht="15">
       <c r="A23" s="9"/>
       <c r="B23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="15">
+    <row r="24" spans="1:8" ht="15">
       <c r="A24" s="9"/>
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="1:7" ht="15">
+    <row r="25" spans="1:8" ht="15">
       <c r="A25" s="9"/>
       <c r="B25" s="4"/>
     </row>
-    <row r="26" spans="1:7" ht="15">
+    <row r="26" spans="1:8" ht="15">
       <c r="A26" s="9"/>
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="1:7" ht="15">
+    <row r="27" spans="1:8" ht="15">
       <c r="A27" s="9"/>
       <c r="B27" s="4"/>
     </row>
-    <row r="28" spans="1:7" ht="15">
+    <row r="28" spans="1:8" ht="15">
       <c r="A28" s="9"/>
       <c r="B28" s="4"/>
     </row>
-    <row r="29" spans="1:7" ht="15">
+    <row r="29" spans="1:8" ht="15">
       <c r="A29" s="9"/>
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:7" ht="15">
+    <row r="30" spans="1:8" ht="15">
       <c r="A30" s="9"/>
       <c r="B30" s="4"/>
     </row>
-    <row r="31" spans="1:7" ht="15">
+    <row r="31" spans="1:8" ht="15">
       <c r="A31" s="9"/>
       <c r="B31" s="4"/>
     </row>
-    <row r="32" spans="1:7" ht="15">
+    <row r="32" spans="1:8" ht="15">
       <c r="A32" s="9"/>
       <c r="B32" s="4"/>
     </row>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\project-g1t8\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F963631-AFC2-4060-9497-8DB469FDE4AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E6D7526-BEBB-4BCC-A929-F248798CA819}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="206">
   <si>
     <t>Question</t>
   </si>
@@ -27795,9 +27795,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I15" sqref="I15"/>
+      <selection pane="topRight" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -27910,9 +27910,6 @@
       <c r="G3" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="4" spans="1:26" ht="63.15" customHeight="1">
       <c r="A4" s="20"/>
@@ -27934,9 +27931,6 @@
       <c r="G4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1">
       <c r="A5" s="20"/>
@@ -27958,9 +27952,6 @@
       <c r="G5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="6" spans="1:26" ht="62.4" customHeight="1">
       <c r="A6" s="21" t="s">
@@ -27983,9 +27974,6 @@
       </c>
       <c r="G6" s="5" t="s">
         <v>203</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1">
@@ -28008,9 +27996,6 @@
       <c r="G7" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>202</v>
-      </c>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1">
       <c r="A8" s="20"/>
@@ -28032,9 +28017,6 @@
       <c r="G8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1">
       <c r="A9" s="21" t="s">
@@ -28056,9 +28038,6 @@
         <v>29</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -28082,9 +28061,6 @@
       <c r="G10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1">
       <c r="A11" s="20"/>
@@ -28106,9 +28082,6 @@
       <c r="G11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="5" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1">
       <c r="A12" s="19" t="s">
@@ -28131,9 +28104,6 @@
       </c>
       <c r="G12" s="5" t="s">
         <v>205</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1">
@@ -28156,9 +28126,6 @@
       <c r="G13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="5" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1">
       <c r="A14" s="20"/>
@@ -28180,9 +28147,6 @@
       <c r="G14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="5" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1">
       <c r="A15" s="21" t="s">
@@ -28205,9 +28169,6 @@
       </c>
       <c r="G15" s="5" t="s">
         <v>204</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1">
@@ -28230,11 +28191,8 @@
       <c r="G16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="63.75" customHeight="1">
+    </row>
+    <row r="17" spans="1:7" ht="63.75" customHeight="1">
       <c r="A17" s="20"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
@@ -28254,67 +28212,64 @@
       <c r="G17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H17" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15">
+    </row>
+    <row r="18" spans="1:7" ht="15">
       <c r="A18" s="9"/>
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="1:8" ht="15">
+    <row r="19" spans="1:7" ht="15">
       <c r="A19" s="9"/>
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="1:8" ht="15">
+    <row r="20" spans="1:7" ht="15">
       <c r="A20" s="9"/>
       <c r="B20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="15">
+    <row r="21" spans="1:7" ht="15">
       <c r="A21" s="9"/>
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:8" ht="15">
+    <row r="22" spans="1:7" ht="15">
       <c r="A22" s="9"/>
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="1:8" ht="15">
+    <row r="23" spans="1:7" ht="15">
       <c r="A23" s="9"/>
       <c r="B23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="15">
+    <row r="24" spans="1:7" ht="15">
       <c r="A24" s="9"/>
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="1:8" ht="15">
+    <row r="25" spans="1:7" ht="15">
       <c r="A25" s="9"/>
       <c r="B25" s="4"/>
     </row>
-    <row r="26" spans="1:8" ht="15">
+    <row r="26" spans="1:7" ht="15">
       <c r="A26" s="9"/>
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="1:8" ht="15">
+    <row r="27" spans="1:7" ht="15">
       <c r="A27" s="9"/>
       <c r="B27" s="4"/>
     </row>
-    <row r="28" spans="1:8" ht="15">
+    <row r="28" spans="1:7" ht="15">
       <c r="A28" s="9"/>
       <c r="B28" s="4"/>
     </row>
-    <row r="29" spans="1:8" ht="15">
+    <row r="29" spans="1:7" ht="15">
       <c r="A29" s="9"/>
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:8" ht="15">
+    <row r="30" spans="1:7" ht="15">
       <c r="A30" s="9"/>
       <c r="B30" s="4"/>
     </row>
-    <row r="31" spans="1:8" ht="15">
+    <row r="31" spans="1:7" ht="15">
       <c r="A31" s="9"/>
       <c r="B31" s="4"/>
     </row>
-    <row r="32" spans="1:8" ht="15">
+    <row r="32" spans="1:7" ht="15">
       <c r="A32" s="9"/>
       <c r="B32" s="4"/>
     </row>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\project-g1t8\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E6D7526-BEBB-4BCC-A929-F248798CA819}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{493C724E-09E3-480D-A71B-72B49FE955A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="206">
   <si>
     <t>Question</t>
   </si>
@@ -27795,9 +27795,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H16" sqref="H16"/>
+      <selection pane="topRight" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -27910,6 +27910,9 @@
       <c r="G3" s="5" t="s">
         <v>198</v>
       </c>
+      <c r="H3" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="4" spans="1:26" ht="63.15" customHeight="1">
       <c r="A4" s="20"/>
@@ -27931,6 +27934,9 @@
       <c r="G4" s="5" t="s">
         <v>29</v>
       </c>
+      <c r="H4" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1">
       <c r="A5" s="20"/>
@@ -27952,6 +27958,9 @@
       <c r="G5" s="5" t="s">
         <v>27</v>
       </c>
+      <c r="H5" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="1:26" ht="62.4" customHeight="1">
       <c r="A6" s="21" t="s">
@@ -27974,6 +27983,9 @@
       </c>
       <c r="G6" s="5" t="s">
         <v>203</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1">
@@ -27996,6 +28008,9 @@
       <c r="G7" s="5" t="s">
         <v>202</v>
       </c>
+      <c r="H7" s="5" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1">
       <c r="A8" s="20"/>
@@ -28017,6 +28032,9 @@
       <c r="G8" s="5" t="s">
         <v>27</v>
       </c>
+      <c r="H8" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1">
       <c r="A9" s="21" t="s">
@@ -28038,6 +28056,9 @@
         <v>29</v>
       </c>
       <c r="G9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -28061,6 +28082,9 @@
       <c r="G10" s="5" t="s">
         <v>29</v>
       </c>
+      <c r="H10" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1">
       <c r="A11" s="20"/>
@@ -28082,6 +28106,9 @@
       <c r="G11" s="5" t="s">
         <v>27</v>
       </c>
+      <c r="H11" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1">
       <c r="A12" s="19" t="s">
@@ -28104,6 +28131,9 @@
       </c>
       <c r="G12" s="5" t="s">
         <v>205</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1">
@@ -28126,6 +28156,9 @@
       <c r="G13" s="5" t="s">
         <v>29</v>
       </c>
+      <c r="H13" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1">
       <c r="A14" s="20"/>
@@ -28147,6 +28180,9 @@
       <c r="G14" s="5" t="s">
         <v>27</v>
       </c>
+      <c r="H14" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1">
       <c r="A15" s="21" t="s">
@@ -28169,6 +28205,9 @@
       </c>
       <c r="G15" s="5" t="s">
         <v>204</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1">
@@ -28191,8 +28230,11 @@
       <c r="G16" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="63.75" customHeight="1">
+      <c r="H16" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="63.75" customHeight="1">
       <c r="A17" s="20"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
@@ -28212,64 +28254,67 @@
       <c r="G17" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="15">
+      <c r="H17" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15">
       <c r="A18" s="9"/>
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="1:7" ht="15">
+    <row r="19" spans="1:8" ht="15">
       <c r="A19" s="9"/>
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="1:7" ht="15">
+    <row r="20" spans="1:8" ht="15">
       <c r="A20" s="9"/>
       <c r="B20" s="4"/>
     </row>
-    <row r="21" spans="1:7" ht="15">
+    <row r="21" spans="1:8" ht="15">
       <c r="A21" s="9"/>
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:7" ht="15">
+    <row r="22" spans="1:8" ht="15">
       <c r="A22" s="9"/>
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="1:7" ht="15">
+    <row r="23" spans="1:8" ht="15">
       <c r="A23" s="9"/>
       <c r="B23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="15">
+    <row r="24" spans="1:8" ht="15">
       <c r="A24" s="9"/>
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="1:7" ht="15">
+    <row r="25" spans="1:8" ht="15">
       <c r="A25" s="9"/>
       <c r="B25" s="4"/>
     </row>
-    <row r="26" spans="1:7" ht="15">
+    <row r="26" spans="1:8" ht="15">
       <c r="A26" s="9"/>
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="1:7" ht="15">
+    <row r="27" spans="1:8" ht="15">
       <c r="A27" s="9"/>
       <c r="B27" s="4"/>
     </row>
-    <row r="28" spans="1:7" ht="15">
+    <row r="28" spans="1:8" ht="15">
       <c r="A28" s="9"/>
       <c r="B28" s="4"/>
     </row>
-    <row r="29" spans="1:7" ht="15">
+    <row r="29" spans="1:8" ht="15">
       <c r="A29" s="9"/>
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:7" ht="15">
+    <row r="30" spans="1:8" ht="15">
       <c r="A30" s="9"/>
       <c r="B30" s="4"/>
     </row>
-    <row r="31" spans="1:7" ht="15">
+    <row r="31" spans="1:8" ht="15">
       <c r="A31" s="9"/>
       <c r="B31" s="4"/>
     </row>
-    <row r="32" spans="1:7" ht="15">
+    <row r="32" spans="1:8" ht="15">
       <c r="A32" s="9"/>
       <c r="B32" s="4"/>
     </row>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\project-g1t8\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{493C724E-09E3-480D-A71B-72B49FE955A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA774D33-47DB-4678-9F2A-CB2CAA2A9422}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="206">
   <si>
     <t>Question</t>
   </si>
@@ -27795,9 +27795,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I6" sqref="I6"/>
+      <selection pane="topRight" activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -27913,6 +27913,9 @@
       <c r="H3" s="5" t="s">
         <v>29</v>
       </c>
+      <c r="I3" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="4" spans="1:26" ht="63.15" customHeight="1">
       <c r="A4" s="20"/>
@@ -27937,6 +27940,9 @@
       <c r="H4" s="5" t="s">
         <v>29</v>
       </c>
+      <c r="I4" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1">
       <c r="A5" s="20"/>
@@ -27961,6 +27967,9 @@
       <c r="H5" s="5" t="s">
         <v>27</v>
       </c>
+      <c r="I5" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="1:26" ht="62.4" customHeight="1">
       <c r="A6" s="21" t="s">
@@ -27985,6 +27994,9 @@
         <v>203</v>
       </c>
       <c r="H6" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>202</v>
       </c>
     </row>
@@ -28011,6 +28023,9 @@
       <c r="H7" s="5" t="s">
         <v>202</v>
       </c>
+      <c r="I7" s="5" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1">
       <c r="A8" s="20"/>
@@ -28035,6 +28050,9 @@
       <c r="H8" s="5" t="s">
         <v>27</v>
       </c>
+      <c r="I8" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1">
       <c r="A9" s="21" t="s">
@@ -28059,6 +28077,9 @@
         <v>29</v>
       </c>
       <c r="H9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -28085,6 +28106,9 @@
       <c r="H10" s="5" t="s">
         <v>29</v>
       </c>
+      <c r="I10" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1">
       <c r="A11" s="20"/>
@@ -28109,6 +28133,9 @@
       <c r="H11" s="5" t="s">
         <v>27</v>
       </c>
+      <c r="I11" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1">
       <c r="A12" s="19" t="s">
@@ -28133,6 +28160,9 @@
         <v>205</v>
       </c>
       <c r="H12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -28159,6 +28189,9 @@
       <c r="H13" s="5" t="s">
         <v>29</v>
       </c>
+      <c r="I13" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1">
       <c r="A14" s="20"/>
@@ -28183,6 +28216,9 @@
       <c r="H14" s="5" t="s">
         <v>27</v>
       </c>
+      <c r="I14" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1">
       <c r="A15" s="21" t="s">
@@ -28207,6 +28243,9 @@
         <v>204</v>
       </c>
       <c r="H15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -28233,8 +28272,11 @@
       <c r="H16" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="63.75" customHeight="1">
+      <c r="I16" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="63.75" customHeight="1">
       <c r="A17" s="20"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
@@ -28257,64 +28299,67 @@
       <c r="H17" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="15">
+      <c r="I17" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15">
       <c r="A18" s="9"/>
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="1:8" ht="15">
+    <row r="19" spans="1:9" ht="15">
       <c r="A19" s="9"/>
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="1:8" ht="15">
+    <row r="20" spans="1:9" ht="15">
       <c r="A20" s="9"/>
       <c r="B20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="15">
+    <row r="21" spans="1:9" ht="15">
       <c r="A21" s="9"/>
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:8" ht="15">
+    <row r="22" spans="1:9" ht="15">
       <c r="A22" s="9"/>
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="1:8" ht="15">
+    <row r="23" spans="1:9" ht="15">
       <c r="A23" s="9"/>
       <c r="B23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="15">
+    <row r="24" spans="1:9" ht="15">
       <c r="A24" s="9"/>
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="1:8" ht="15">
+    <row r="25" spans="1:9" ht="15">
       <c r="A25" s="9"/>
       <c r="B25" s="4"/>
     </row>
-    <row r="26" spans="1:8" ht="15">
+    <row r="26" spans="1:9" ht="15">
       <c r="A26" s="9"/>
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="1:8" ht="15">
+    <row r="27" spans="1:9" ht="15">
       <c r="A27" s="9"/>
       <c r="B27" s="4"/>
     </row>
-    <row r="28" spans="1:8" ht="15">
+    <row r="28" spans="1:9" ht="15">
       <c r="A28" s="9"/>
       <c r="B28" s="4"/>
     </row>
-    <row r="29" spans="1:8" ht="15">
+    <row r="29" spans="1:9" ht="15">
       <c r="A29" s="9"/>
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:8" ht="15">
+    <row r="30" spans="1:9" ht="15">
       <c r="A30" s="9"/>
       <c r="B30" s="4"/>
     </row>
-    <row r="31" spans="1:8" ht="15">
+    <row r="31" spans="1:9" ht="15">
       <c r="A31" s="9"/>
       <c r="B31" s="4"/>
     </row>
-    <row r="32" spans="1:8" ht="15">
+    <row r="32" spans="1:9" ht="15">
       <c r="A32" s="9"/>
       <c r="B32" s="4"/>
     </row>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\project-g1t8\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA774D33-47DB-4678-9F2A-CB2CAA2A9422}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75883701-FAD0-4517-99B5-B13331BA19A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 5" sheetId="18" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="209">
   <si>
     <t>Question</t>
   </si>
@@ -655,6 +655,15 @@
   <si>
     <t>Debugging, updated bug metrics</t>
   </si>
+  <si>
+    <t>Debugging and editting the UI with reference to UAT feedback</t>
+  </si>
+  <si>
+    <t>Debugging problems discovered in UAT (vacancies, e-Balance, min-bid amount)</t>
+  </si>
+  <si>
+    <t>Update the schedule and daily updates; debugging, editing UI with Hilya</t>
+  </si>
 </sst>
 </file>
 
@@ -27795,9 +27804,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L6" sqref="L6"/>
+      <selection pane="topRight" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -32262,9 +32271,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A12" sqref="A12:A14"/>
+      <selection pane="topRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -32362,7 +32371,9 @@
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -32373,7 +32384,9 @@
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>207</v>
+      </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -32384,7 +32397,9 @@
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -32397,7 +32412,9 @@
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="5" t="s">
+        <v>202</v>
+      </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -32408,8 +32425,9 @@
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>208</v>
+      </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
@@ -32419,7 +32437,9 @@
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -32432,7 +32452,9 @@
       <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -32443,7 +32465,9 @@
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -32454,7 +32478,9 @@
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="5"/>
+      <c r="C11" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -32467,7 +32493,9 @@
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="5"/>
+      <c r="C12" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -32478,7 +32506,9 @@
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="5"/>
+      <c r="C13" s="5" t="s">
+        <v>207</v>
+      </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -32489,7 +32519,9 @@
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="5"/>
+      <c r="C14" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -32502,7 +32534,9 @@
       <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="5"/>
+      <c r="C15" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -32513,7 +32547,9 @@
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="5"/>
+      <c r="C16" s="5" t="s">
+        <v>206</v>
+      </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -32524,7 +32560,9 @@
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="5"/>
+      <c r="C17" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\project-g1t8\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75883701-FAD0-4517-99B5-B13331BA19A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698762A2-5576-4813-9842-41160F637F80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="212">
   <si>
     <t>Question</t>
   </si>
@@ -664,6 +664,15 @@
   <si>
     <t>Update the schedule and daily updates; debugging, editing UI with Hilya</t>
   </si>
+  <si>
+    <t>Write testcases for JSON</t>
+  </si>
+  <si>
+    <t>Debugging problems discovered in UAT (vacancies, e-Balance, min-bid amount), testing JSON</t>
+  </si>
+  <si>
+    <t>Update the schedule and daily updates; debugging, editing UI with Hilya, testing JSON</t>
+  </si>
 </sst>
 </file>
 
@@ -32271,9 +32280,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C7" sqref="C7"/>
+      <selection pane="topRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -32374,7 +32383,9 @@
       <c r="C3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="5"/>
+      <c r="D3" s="5" t="s">
+        <v>207</v>
+      </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -32387,7 +32398,9 @@
       <c r="C4" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -32400,7 +32413,9 @@
       <c r="C5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -32415,7 +32430,9 @@
       <c r="C6" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>211</v>
+      </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -32428,6 +32445,9 @@
       <c r="C7" s="5" t="s">
         <v>208</v>
       </c>
+      <c r="D7" s="5" t="s">
+        <v>202</v>
+      </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
@@ -32440,7 +32460,9 @@
       <c r="C8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
@@ -32455,7 +32477,9 @@
       <c r="C9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
@@ -32468,7 +32492,9 @@
       <c r="C10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>209</v>
+      </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -32481,7 +32507,9 @@
       <c r="C11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -32496,7 +32524,9 @@
       <c r="C12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>210</v>
+      </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
@@ -32509,7 +32539,9 @@
       <c r="C13" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="D13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
@@ -32522,7 +32554,9 @@
       <c r="C14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
@@ -32537,7 +32571,9 @@
       <c r="C15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>206</v>
+      </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
@@ -32550,7 +32586,9 @@
       <c r="C16" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="D16" s="5"/>
+      <c r="D16" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
@@ -32563,7 +32601,9 @@
       <c r="C17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="5"/>
+      <c r="D17" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\project-g1t8\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698762A2-5576-4813-9842-41160F637F80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E8FFBA-6AFE-49D0-995B-9147DAE204A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="220">
   <si>
     <t>Question</t>
   </si>
@@ -673,6 +673,30 @@
   <si>
     <t>Update the schedule and daily updates; debugging, editing UI with Hilya, testing JSON</t>
   </si>
+  <si>
+    <t>Write testcases for JSON authenticate</t>
+  </si>
+  <si>
+    <t>Write testcases for JSON bootstrap</t>
+  </si>
+  <si>
+    <t>Debugging bid status</t>
+  </si>
+  <si>
+    <t>Continue debugging problems discovered in UAT (vacancies, e-Balance, min-bid amount)</t>
+  </si>
+  <si>
+    <t>Continue debugging bid processing functions</t>
+  </si>
+  <si>
+    <t>Update the schedule and daily updates, debugging with Hilya</t>
+  </si>
+  <si>
+    <t>Update the schedule and daily updates, continue debugging with Hilya</t>
+  </si>
+  <si>
+    <t>Work on debugging bid clearing functions with Steffi</t>
+  </si>
 </sst>
 </file>
 
@@ -32280,9 +32304,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D6" sqref="D6"/>
+      <selection pane="topRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -32386,7 +32410,9 @@
       <c r="D3" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
@@ -32401,7 +32427,9 @@
       <c r="D4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>215</v>
+      </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
@@ -32416,7 +32444,9 @@
       <c r="D5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
@@ -32433,7 +32463,9 @@
       <c r="D6" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>217</v>
+      </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
@@ -32446,9 +32478,11 @@
         <v>208</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="E7" s="5"/>
+        <v>217</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>218</v>
+      </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
     </row>
@@ -32463,7 +32497,9 @@
       <c r="D8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
@@ -32480,7 +32516,9 @@
       <c r="D9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>212</v>
+      </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
@@ -32495,7 +32533,9 @@
       <c r="D10" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>213</v>
+      </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
@@ -32510,7 +32550,9 @@
       <c r="D11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="5"/>
+      <c r="E11" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
@@ -32527,7 +32569,9 @@
       <c r="D12" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="E12" s="5"/>
+      <c r="E12" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
@@ -32542,7 +32586,9 @@
       <c r="D13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="5"/>
+      <c r="E13" s="5" t="s">
+        <v>219</v>
+      </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
@@ -32557,7 +32603,9 @@
       <c r="D14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="5"/>
+      <c r="E14" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
@@ -32574,7 +32622,9 @@
       <c r="D15" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="E15" s="5"/>
+      <c r="E15" s="5" t="s">
+        <v>214</v>
+      </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
     </row>
@@ -32587,9 +32637,11 @@
         <v>206</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="5"/>
+        <v>214</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>216</v>
+      </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
     </row>
@@ -32604,7 +32656,9 @@
       <c r="D17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="5"/>
+      <c r="E17" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
     </row>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\project-g1t8\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E8FFBA-6AFE-49D0-995B-9147DAE204A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED042B9D-26B0-4D7C-88D3-1930E405C336}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="220">
   <si>
     <t>Question</t>
   </si>
@@ -677,9 +677,6 @@
     <t>Write testcases for JSON authenticate</t>
   </si>
   <si>
-    <t>Write testcases for JSON bootstrap</t>
-  </si>
-  <si>
     <t>Debugging bid status</t>
   </si>
   <si>
@@ -696,6 +693,9 @@
   </si>
   <si>
     <t>Work on debugging bid clearing functions with Steffi</t>
+  </si>
+  <si>
+    <t>Debugging and editting the UI e.g.,  for admin login, error messages</t>
   </si>
 </sst>
 </file>
@@ -32304,9 +32304,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E14" sqref="E14"/>
+      <selection pane="topRight" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -32413,7 +32413,9 @@
       <c r="E3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="5"/>
+      <c r="F3" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="63.15" customHeight="1">
@@ -32428,9 +32430,11 @@
         <v>29</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="F4" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>214</v>
+      </c>
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1">
@@ -32447,7 +32451,9 @@
       <c r="E5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="62.4" customHeight="1">
@@ -32464,9 +32470,11 @@
         <v>211</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1">
@@ -32478,12 +32486,14 @@
         <v>208</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>202</v>
+      </c>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1">
@@ -32500,7 +32510,9 @@
       <c r="E8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1">
@@ -32519,7 +32531,9 @@
       <c r="E9" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="F9" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1">
@@ -32534,9 +32548,11 @@
         <v>209</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F10" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1">
@@ -32553,7 +32569,9 @@
       <c r="E11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="5"/>
+      <c r="F11" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1">
@@ -32572,8 +32590,9 @@
       <c r="E12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+      <c r="F12" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1">
       <c r="A13" s="20"/>
@@ -32587,9 +32606,11 @@
         <v>29</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="F13" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>218</v>
+      </c>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1">
@@ -32606,7 +32627,9 @@
       <c r="E14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="5"/>
+      <c r="F14" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1">
@@ -32623,9 +32646,11 @@
         <v>206</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="F15" s="5"/>
+        <v>213</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>219</v>
+      </c>
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1">
@@ -32637,12 +32662,14 @@
         <v>206</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="F16" s="5"/>
+        <v>215</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="63.75" customHeight="1">
@@ -32659,7 +32686,9 @@
       <c r="E17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="5"/>
+      <c r="F17" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7" ht="15">

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\project-g1t8\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED042B9D-26B0-4D7C-88D3-1930E405C336}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D16474A-96ED-4CF1-A19B-01AFC24F1192}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="225">
   <si>
     <t>Question</t>
   </si>
@@ -697,6 +697,21 @@
   <si>
     <t>Debugging and editting the UI e.g.,  for admin login, error messages</t>
   </si>
+  <si>
+    <t>Not a working day (on MC)</t>
+  </si>
+  <si>
+    <t>Debugging and testing of bootstrap</t>
+  </si>
+  <si>
+    <t>Debugging bid clearing functions with Steffi</t>
+  </si>
+  <si>
+    <t>Continue debugging of app</t>
+  </si>
+  <si>
+    <t>Debugging and testing with Hui Sin</t>
+  </si>
 </sst>
 </file>
 
@@ -14436,9 +14451,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C10" sqref="C10"/>
+      <selection pane="topRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -27837,9 +27852,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I6" sqref="I6"/>
+    <sheetView topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -28143,13 +28158,13 @@
         <v>29</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>29</v>
+        <v>220</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>29</v>
+        <v>220</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>29</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1">
@@ -32306,7 +32321,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H15" sqref="H15"/>
+      <selection pane="topRight" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -32416,7 +32431,9 @@
       <c r="F3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="5"/>
+      <c r="G3" s="5" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="4" spans="1:26" ht="63.15" customHeight="1">
       <c r="A4" s="20"/>
@@ -32435,7 +32452,9 @@
       <c r="F4" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="G4" s="5"/>
+      <c r="G4" s="5" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1">
       <c r="A5" s="20"/>
@@ -32454,7 +32473,9 @@
       <c r="F5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="5"/>
+      <c r="G5" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="1:26" ht="62.4" customHeight="1">
       <c r="A6" s="21" t="s">
@@ -32473,9 +32494,11 @@
         <v>216</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="G6" s="5"/>
+        <v>202</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1">
       <c r="A7" s="20"/>
@@ -32494,7 +32517,9 @@
       <c r="F7" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="G7" s="5"/>
+      <c r="G7" s="5" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1">
       <c r="A8" s="20"/>
@@ -32513,7 +32538,9 @@
       <c r="F8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="5"/>
+      <c r="G8" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1">
       <c r="A9" s="21" t="s">
@@ -32534,7 +32561,9 @@
       <c r="F9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="5"/>
+      <c r="G9" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1">
       <c r="A10" s="20"/>
@@ -32542,7 +32571,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>29</v>
+        <v>220</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>209</v>
@@ -32553,7 +32582,9 @@
       <c r="F10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="5"/>
+      <c r="G10" s="5" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1">
       <c r="A11" s="20"/>
@@ -32572,7 +32603,9 @@
       <c r="F11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="5"/>
+      <c r="G11" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1">
       <c r="A12" s="19" t="s">
@@ -32592,6 +32625,9 @@
       </c>
       <c r="F12" s="5" t="s">
         <v>29</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1">
@@ -32611,7 +32647,9 @@
       <c r="F13" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="G13" s="5"/>
+      <c r="G13" s="5" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1">
       <c r="A14" s="20"/>
@@ -32630,7 +32668,9 @@
       <c r="F14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="5"/>
+      <c r="G14" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1">
       <c r="A15" s="21" t="s">
@@ -32651,7 +32691,9 @@
       <c r="F15" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="G15" s="5"/>
+      <c r="G15" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1">
       <c r="A16" s="20"/>
@@ -32670,7 +32712,9 @@
       <c r="F16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="5"/>
+      <c r="G16" s="5" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="63.75" customHeight="1">
       <c r="A17" s="20"/>
@@ -32689,7 +32733,9 @@
       <c r="F17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="5"/>
+      <c r="G17" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="15">
       <c r="A18" s="9"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\project-g1t8\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D16474A-96ED-4CF1-A19B-01AFC24F1192}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770058DD-EB2E-4A81-9425-B12D4B0F88E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="223">
   <si>
     <t>Question</t>
   </si>
@@ -701,16 +701,10 @@
     <t>Not a working day (on MC)</t>
   </si>
   <si>
-    <t>Debugging and testing of bootstrap</t>
+    <t>Write testcases for JSON bootstrap</t>
   </si>
   <si>
-    <t>Debugging bid clearing functions with Steffi</t>
-  </si>
-  <si>
-    <t>Continue debugging of app</t>
-  </si>
-  <si>
-    <t>Debugging and testing with Hui Sin</t>
+    <t>Debugging of app</t>
   </si>
 </sst>
 </file>
@@ -32319,9 +32313,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -32434,6 +32428,9 @@
       <c r="G3" s="5" t="s">
         <v>207</v>
       </c>
+      <c r="H3" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="4" spans="1:26" ht="63.15" customHeight="1">
       <c r="A4" s="20"/>
@@ -32453,7 +32450,10 @@
         <v>214</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>214</v>
+        <v>29</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1">
@@ -32476,6 +32476,9 @@
       <c r="G5" s="5" t="s">
         <v>27</v>
       </c>
+      <c r="H5" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="1:26" ht="62.4" customHeight="1">
       <c r="A6" s="21" t="s">
@@ -32497,6 +32500,9 @@
         <v>202</v>
       </c>
       <c r="G6" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>202</v>
       </c>
     </row>
@@ -32520,6 +32526,9 @@
       <c r="G7" s="5" t="s">
         <v>202</v>
       </c>
+      <c r="H7" s="5" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1">
       <c r="A8" s="20"/>
@@ -32541,6 +32550,9 @@
       <c r="G8" s="5" t="s">
         <v>27</v>
       </c>
+      <c r="H8" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1">
       <c r="A9" s="21" t="s">
@@ -32563,6 +32575,9 @@
       </c>
       <c r="G9" s="5" t="s">
         <v>29</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1">
@@ -32585,6 +32600,9 @@
       <c r="G10" s="5" t="s">
         <v>221</v>
       </c>
+      <c r="H10" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1">
       <c r="A11" s="20"/>
@@ -32606,6 +32624,9 @@
       <c r="G11" s="5" t="s">
         <v>27</v>
       </c>
+      <c r="H11" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1">
       <c r="A12" s="19" t="s">
@@ -32628,6 +32649,9 @@
       </c>
       <c r="G12" s="5" t="s">
         <v>222</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1">
@@ -32648,7 +32672,10 @@
         <v>218</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>223</v>
+        <v>209</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1">
@@ -32671,6 +32698,9 @@
       <c r="G14" s="5" t="s">
         <v>27</v>
       </c>
+      <c r="H14" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1">
       <c r="A15" s="21" t="s">
@@ -32693,6 +32723,9 @@
       </c>
       <c r="G15" s="5" t="s">
         <v>29</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1">
@@ -32713,10 +32746,13 @@
         <v>29</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="63.75" customHeight="1">
+        <v>209</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="63.75" customHeight="1">
       <c r="A17" s="20"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
@@ -32736,64 +32772,67 @@
       <c r="G17" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="15">
+      <c r="H17" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15">
       <c r="A18" s="9"/>
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="1:7" ht="15">
+    <row r="19" spans="1:8" ht="15">
       <c r="A19" s="9"/>
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="1:7" ht="15">
+    <row r="20" spans="1:8" ht="15">
       <c r="A20" s="9"/>
       <c r="B20" s="4"/>
     </row>
-    <row r="21" spans="1:7" ht="15">
+    <row r="21" spans="1:8" ht="15">
       <c r="A21" s="9"/>
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:7" ht="15">
+    <row r="22" spans="1:8" ht="15">
       <c r="A22" s="9"/>
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="1:7" ht="15">
+    <row r="23" spans="1:8" ht="15">
       <c r="A23" s="9"/>
       <c r="B23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="15">
+    <row r="24" spans="1:8" ht="15">
       <c r="A24" s="9"/>
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="1:7" ht="15">
+    <row r="25" spans="1:8" ht="15">
       <c r="A25" s="9"/>
       <c r="B25" s="4"/>
     </row>
-    <row r="26" spans="1:7" ht="15">
+    <row r="26" spans="1:8" ht="15">
       <c r="A26" s="9"/>
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="1:7" ht="15">
+    <row r="27" spans="1:8" ht="15">
       <c r="A27" s="9"/>
       <c r="B27" s="4"/>
     </row>
-    <row r="28" spans="1:7" ht="15">
+    <row r="28" spans="1:8" ht="15">
       <c r="A28" s="9"/>
       <c r="B28" s="4"/>
     </row>
-    <row r="29" spans="1:7" ht="15">
+    <row r="29" spans="1:8" ht="15">
       <c r="A29" s="9"/>
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:7" ht="15">
+    <row r="30" spans="1:8" ht="15">
       <c r="A30" s="9"/>
       <c r="B30" s="4"/>
     </row>
-    <row r="31" spans="1:7" ht="15">
+    <row r="31" spans="1:8" ht="15">
       <c r="A31" s="9"/>
       <c r="B31" s="4"/>
     </row>
-    <row r="32" spans="1:7" ht="15">
+    <row r="32" spans="1:8" ht="15">
       <c r="A32" s="9"/>
       <c r="B32" s="4"/>
     </row>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\project-g1t8\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770058DD-EB2E-4A81-9425-B12D4B0F88E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3510FCF-EC25-4ACD-B44B-D25E38530D6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="223">
   <si>
     <t>Question</t>
   </si>
@@ -32315,7 +32315,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H17" sqref="H17"/>
+      <selection pane="topRight" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -32431,6 +32431,9 @@
       <c r="H3" s="5" t="s">
         <v>29</v>
       </c>
+      <c r="I3" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="4" spans="1:26" ht="63.15" customHeight="1">
       <c r="A4" s="20"/>
@@ -32455,6 +32458,9 @@
       <c r="H4" s="5" t="s">
         <v>29</v>
       </c>
+      <c r="I4" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1">
       <c r="A5" s="20"/>
@@ -32479,6 +32485,9 @@
       <c r="H5" s="5" t="s">
         <v>27</v>
       </c>
+      <c r="I5" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="1:26" ht="62.4" customHeight="1">
       <c r="A6" s="21" t="s">
@@ -32503,6 +32512,9 @@
         <v>202</v>
       </c>
       <c r="H6" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>202</v>
       </c>
     </row>
@@ -32529,6 +32541,9 @@
       <c r="H7" s="5" t="s">
         <v>202</v>
       </c>
+      <c r="I7" s="5" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1">
       <c r="A8" s="20"/>
@@ -32553,6 +32568,9 @@
       <c r="H8" s="5" t="s">
         <v>27</v>
       </c>
+      <c r="I8" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1">
       <c r="A9" s="21" t="s">
@@ -32578,6 +32596,9 @@
       </c>
       <c r="H9" s="5" t="s">
         <v>221</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1">
@@ -32603,6 +32624,9 @@
       <c r="H10" s="5" t="s">
         <v>29</v>
       </c>
+      <c r="I10" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1">
       <c r="A11" s="20"/>
@@ -32627,6 +32651,9 @@
       <c r="H11" s="5" t="s">
         <v>27</v>
       </c>
+      <c r="I11" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1">
       <c r="A12" s="19" t="s">
@@ -32652,6 +32679,9 @@
       </c>
       <c r="H12" s="5" t="s">
         <v>209</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1">
@@ -32677,6 +32707,9 @@
       <c r="H13" s="5" t="s">
         <v>29</v>
       </c>
+      <c r="I13" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1">
       <c r="A14" s="20"/>
@@ -32701,6 +32734,9 @@
       <c r="H14" s="5" t="s">
         <v>27</v>
       </c>
+      <c r="I14" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1">
       <c r="A15" s="21" t="s">
@@ -32726,6 +32762,9 @@
       </c>
       <c r="H15" s="5" t="s">
         <v>209</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1">
@@ -32751,8 +32790,11 @@
       <c r="H16" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="63.75" customHeight="1">
+      <c r="I16" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="63.75" customHeight="1">
       <c r="A17" s="20"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
@@ -32775,64 +32817,67 @@
       <c r="H17" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="15">
+      <c r="I17" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15">
       <c r="A18" s="9"/>
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="1:8" ht="15">
+    <row r="19" spans="1:9" ht="15">
       <c r="A19" s="9"/>
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="1:8" ht="15">
+    <row r="20" spans="1:9" ht="15">
       <c r="A20" s="9"/>
       <c r="B20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="15">
+    <row r="21" spans="1:9" ht="15">
       <c r="A21" s="9"/>
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:8" ht="15">
+    <row r="22" spans="1:9" ht="15">
       <c r="A22" s="9"/>
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="1:8" ht="15">
+    <row r="23" spans="1:9" ht="15">
       <c r="A23" s="9"/>
       <c r="B23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="15">
+    <row r="24" spans="1:9" ht="15">
       <c r="A24" s="9"/>
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="1:8" ht="15">
+    <row r="25" spans="1:9" ht="15">
       <c r="A25" s="9"/>
       <c r="B25" s="4"/>
     </row>
-    <row r="26" spans="1:8" ht="15">
+    <row r="26" spans="1:9" ht="15">
       <c r="A26" s="9"/>
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="1:8" ht="15">
+    <row r="27" spans="1:9" ht="15">
       <c r="A27" s="9"/>
       <c r="B27" s="4"/>
     </row>
-    <row r="28" spans="1:8" ht="15">
+    <row r="28" spans="1:9" ht="15">
       <c r="A28" s="9"/>
       <c r="B28" s="4"/>
     </row>
-    <row r="29" spans="1:8" ht="15">
+    <row r="29" spans="1:9" ht="15">
       <c r="A29" s="9"/>
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:8" ht="15">
+    <row r="30" spans="1:9" ht="15">
       <c r="A30" s="9"/>
       <c r="B30" s="4"/>
     </row>
-    <row r="31" spans="1:8" ht="15">
+    <row r="31" spans="1:9" ht="15">
       <c r="A31" s="9"/>
       <c r="B31" s="4"/>
     </row>
-    <row r="32" spans="1:8" ht="15">
+    <row r="32" spans="1:9" ht="15">
       <c r="A32" s="9"/>
       <c r="B32" s="4"/>
     </row>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\project-g1t8\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3510FCF-EC25-4ACD-B44B-D25E38530D6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60EC8AF5-16C6-4892-A5AC-55C7396CBBBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 5" sheetId="18" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="225">
   <si>
     <t>Question</t>
   </si>
@@ -706,6 +706,12 @@
   <si>
     <t>Debugging of app</t>
   </si>
+  <si>
+    <t>Update the schedule and daily updates, help to write more JSON testcases</t>
+  </si>
+  <si>
+    <t>Testing and debugging of app</t>
+  </si>
 </sst>
 </file>
 
@@ -32313,9 +32319,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I17" sqref="I17"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -36780,9 +36786,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A12" sqref="A12:A14"/>
+      <selection pane="topRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -36879,7 +36885,9 @@
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -36890,7 +36898,9 @@
       <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>224</v>
+      </c>
       <c r="D4" s="5"/>
       <c r="E4" s="10"/>
       <c r="F4" s="5"/>
@@ -36901,7 +36911,9 @@
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -36914,7 +36926,9 @@
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="5" t="s">
+        <v>202</v>
+      </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -36925,7 +36939,9 @@
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>223</v>
+      </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -36936,7 +36952,9 @@
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -36949,7 +36967,9 @@
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -36960,7 +36980,9 @@
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>224</v>
+      </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -36971,7 +36993,9 @@
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="5"/>
+      <c r="C11" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -36984,7 +37008,9 @@
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="5"/>
+      <c r="C12" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -36995,7 +37021,9 @@
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="5"/>
+      <c r="C13" s="5" t="s">
+        <v>224</v>
+      </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -37006,7 +37034,9 @@
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="5"/>
+      <c r="C14" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -37019,7 +37049,9 @@
       <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="5"/>
+      <c r="C15" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -37030,7 +37062,9 @@
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="5"/>
+      <c r="C16" s="5" t="s">
+        <v>224</v>
+      </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -37041,7 +37075,9 @@
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="5"/>
+      <c r="C17" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\project-g1t8\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60EC8AF5-16C6-4892-A5AC-55C7396CBBBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{214DB789-DCDF-4C18-ABA6-9FE635C88544}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="228">
   <si>
     <t>Question</t>
   </si>
@@ -712,6 +712,15 @@
   <si>
     <t>Testing and debugging of app</t>
   </si>
+  <si>
+    <t>Write testcases for bootstrap</t>
+  </si>
+  <si>
+    <t>Write JSON tescases</t>
+  </si>
+  <si>
+    <t>Work on JSON testcases</t>
+  </si>
 </sst>
 </file>
 
@@ -36786,9 +36795,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D16" sqref="D16"/>
+      <selection pane="topRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -36888,7 +36897,9 @@
       <c r="C3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="5"/>
+      <c r="D3" s="5" t="s">
+        <v>227</v>
+      </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -36901,7 +36912,9 @@
       <c r="C4" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="E4" s="10"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -36914,7 +36927,9 @@
       <c r="C5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -36929,7 +36944,9 @@
       <c r="C6" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>223</v>
+      </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -36942,7 +36959,9 @@
       <c r="C7" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>202</v>
+      </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
@@ -36955,7 +36974,9 @@
       <c r="C8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
@@ -36970,7 +36991,9 @@
       <c r="C9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>225</v>
+      </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
@@ -36983,7 +37006,9 @@
       <c r="C10" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -36996,7 +37021,9 @@
       <c r="C11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -37011,7 +37038,9 @@
       <c r="C12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>225</v>
+      </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
@@ -37024,7 +37053,9 @@
       <c r="C13" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="D13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
@@ -37037,7 +37068,9 @@
       <c r="C14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
@@ -37052,7 +37085,9 @@
       <c r="C15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>226</v>
+      </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
@@ -37065,7 +37100,9 @@
       <c r="C16" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="D16" s="5"/>
+      <c r="D16" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
@@ -37078,7 +37115,9 @@
       <c r="C17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="5"/>
+      <c r="D17" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\project-g1t8\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{214DB789-DCDF-4C18-ABA6-9FE635C88544}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D947DD8B-9BE8-42FA-8CFF-9998AFD166F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="228">
   <si>
     <t>Question</t>
   </si>
@@ -726,7 +726,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -761,11 +761,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -827,7 +822,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -853,26 +848,23 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1197,21 +1189,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.399999999999999">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -1231,8 +1223,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.6">
-      <c r="A2" s="20"/>
-      <c r="B2" s="23"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -1273,7 +1265,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1283,18 +1275,18 @@
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="63.15" customHeight="1">
-      <c r="A4" s="20"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -1302,18 +1294,18 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="10" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A5" s="20"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -1321,18 +1313,18 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="62.4" customHeight="1">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="20" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1342,18 +1334,18 @@
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A7" s="20"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -1361,18 +1353,18 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A8" s="20"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -1380,18 +1372,18 @@
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="10" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1401,18 +1393,18 @@
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A10" s="20"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -1420,18 +1412,18 @@
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A11" s="20"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -1439,18 +1431,18 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I11" s="10" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="18" t="s">
         <v>84</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -1460,18 +1452,18 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="I12" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A13" s="20"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -1479,18 +1471,18 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="I13" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A14" s="20"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -1498,18 +1490,18 @@
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="H14" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="I14" s="10" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="20" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -1519,18 +1511,18 @@
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="H15" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="I15" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A16" s="20"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -1538,18 +1530,18 @@
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="H16" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="11" t="s">
+      <c r="I16" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="63.75" customHeight="1">
-      <c r="A17" s="20"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -1557,13 +1549,13 @@
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="14" t="s">
+      <c r="G17" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="H17" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="I17" s="11" t="s">
+      <c r="I17" s="10" t="s">
         <v>31</v>
       </c>
     </row>
@@ -5544,21 +5536,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.399999999999999">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -5578,8 +5570,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.6">
-      <c r="A2" s="20"/>
-      <c r="B2" s="23"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -5620,417 +5612,417 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="63.15" customHeight="1">
-      <c r="A4" s="20"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="10" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A5" s="20"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="62.4" customHeight="1">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="20" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A7" s="20"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A8" s="20"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="10" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A10" s="20"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A11" s="20"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I11" s="10" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="18" t="s">
         <v>84</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="I12" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A13" s="20"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="I13" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A14" s="20"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="H14" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="I14" s="10" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="20" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="H15" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="I15" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A16" s="20"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="H16" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="11" t="s">
+      <c r="I16" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="63.75" customHeight="1">
-      <c r="A17" s="20"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="H17" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="I17" s="11" t="s">
+      <c r="I17" s="10" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10011,21 +10003,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.399999999999999">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -10045,8 +10037,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.6">
-      <c r="A2" s="20"/>
-      <c r="B2" s="23"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -10087,28 +10079,28 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="10" t="s">
         <v>71</v>
       </c>
       <c r="I3" s="6" t="s">
@@ -10116,26 +10108,26 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="63.15" customHeight="1">
-      <c r="A4" s="20"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="10" t="s">
         <v>73</v>
       </c>
       <c r="I4" s="6" t="s">
@@ -10143,26 +10135,26 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A5" s="20"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="10" t="s">
         <v>27</v>
       </c>
       <c r="I5" s="6" t="s">
@@ -10170,165 +10162,165 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="62.4" customHeight="1">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="20" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="12" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A7" s="20"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="12" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A8" s="20"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="13" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="10" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A10" s="20"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="I10" s="12" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A11" s="20"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="10" t="s">
         <v>27</v>
       </c>
       <c r="I11" s="6" t="s">
@@ -10336,28 +10328,28 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="18" t="s">
         <v>84</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="11" t="s">
         <v>29</v>
       </c>
       <c r="I12" s="6" t="s">
@@ -10365,26 +10357,26 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A13" s="20"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="H13" s="11" t="s">
         <v>74</v>
       </c>
       <c r="I13" s="6" t="s">
@@ -10392,26 +10384,26 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A14" s="20"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="11" t="s">
         <v>27</v>
       </c>
       <c r="I14" s="6" t="s">
@@ -10419,85 +10411,85 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="20" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="13" t="s">
+      <c r="I15" s="12" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A16" s="20"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="H16" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="13" t="s">
+      <c r="I16" s="12" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="63.75" customHeight="1">
-      <c r="A17" s="20"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="G17" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H17" s="14" t="s">
+      <c r="H17" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="14" t="s">
+      <c r="I17" s="13" t="s">
         <v>27</v>
       </c>
     </row>
@@ -14478,21 +14470,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.399999999999999">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -14512,8 +14504,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.6">
-      <c r="A2" s="20"/>
-      <c r="B2" s="23"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -14554,417 +14546,417 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="63.15" customHeight="1">
-      <c r="A4" s="20"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A5" s="20"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="62.4" customHeight="1">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="20" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="10" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A7" s="20"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A8" s="20"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="10" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A10" s="20"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="10" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A11" s="20"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I11" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="18" t="s">
         <v>84</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="I12" s="10" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A13" s="20"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="I13" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A14" s="20"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="H14" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="I14" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="20" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="H15" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="I15" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A16" s="20"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="H16" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="11" t="s">
+      <c r="I16" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="63.75" customHeight="1">
-      <c r="A17" s="20"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="G17" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="H17" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="11" t="s">
+      <c r="I17" s="10" t="s">
         <v>27</v>
       </c>
     </row>
@@ -18945,21 +18937,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.399999999999999">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -18979,8 +18971,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.6">
-      <c r="A2" s="20"/>
-      <c r="B2" s="23"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -19021,417 +19013,417 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="63.15" customHeight="1">
-      <c r="A4" s="20"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A5" s="20"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="62.4" customHeight="1">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="20" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A7" s="20"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A8" s="20"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A10" s="20"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A11" s="20"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I11" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="18" t="s">
         <v>84</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="I12" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A13" s="20"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="I13" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A14" s="20"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="H14" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="I14" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="20" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="H15" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="I15" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A16" s="20"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="H16" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="11" t="s">
+      <c r="I16" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="63.75" customHeight="1">
-      <c r="A17" s="20"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="G17" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="H17" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="11" t="s">
+      <c r="I17" s="10" t="s">
         <v>27</v>
       </c>
     </row>
@@ -23403,7 +23395,7 @@
   <cols>
     <col min="1" max="1" width="16.33203125" style="6" customWidth="1"/>
     <col min="2" max="2" width="29.33203125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="31.6640625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" style="16" customWidth="1"/>
     <col min="4" max="4" width="32" style="6" customWidth="1"/>
     <col min="5" max="5" width="31" style="6" customWidth="1"/>
     <col min="6" max="6" width="30.88671875" style="6" customWidth="1"/>
@@ -23412,21 +23404,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.399999999999999">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -23446,9 +23438,9 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.6">
-      <c r="A2" s="20"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="15" t="s">
+      <c r="A2" s="19"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -23488,13 +23480,13 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>29</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -23512,16 +23504,16 @@
       <c r="H3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="10" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="63.15" customHeight="1">
-      <c r="A4" s="20"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>29</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -23544,11 +23536,11 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A5" s="20"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>27</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -23563,21 +23555,21 @@
       <c r="G5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="62.4" customHeight="1">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="20" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>29</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -23595,16 +23587,16 @@
       <c r="H6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="10" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A7" s="20"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -23627,11 +23619,11 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A8" s="20"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="17" t="s">
         <v>27</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -23646,21 +23638,21 @@
       <c r="G8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>29</v>
       </c>
       <c r="D9" s="5" t="s">
@@ -23678,16 +23670,16 @@
       <c r="H9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="10" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A10" s="20"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="15" t="s">
         <v>29</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -23710,11 +23702,11 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A11" s="20"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="17" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -23732,18 +23724,18 @@
       <c r="H11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I11" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="18" t="s">
         <v>84</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="17" t="s">
         <v>29</v>
       </c>
       <c r="D12" s="5" t="s">
@@ -23761,16 +23753,16 @@
       <c r="H12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="I12" s="10" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A13" s="20"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="17" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -23793,11 +23785,11 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A14" s="20"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="17" t="s">
         <v>27</v>
       </c>
       <c r="D14" s="5" t="s">
@@ -23815,18 +23807,18 @@
       <c r="H14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="I14" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="20" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="17" t="s">
         <v>29</v>
       </c>
       <c r="D15" s="5" t="s">
@@ -23849,11 +23841,11 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A16" s="20"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>42</v>
       </c>
       <c r="D16" s="5" t="s">
@@ -23876,11 +23868,11 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="63.75" customHeight="1">
-      <c r="A17" s="20"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="17" t="s">
         <v>27</v>
       </c>
       <c r="D17" s="5" t="s">
@@ -27879,21 +27871,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.399999999999999">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -27913,8 +27905,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.6">
-      <c r="A2" s="20"/>
-      <c r="B2" s="23"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -27955,7 +27947,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -27984,7 +27976,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="63.15" customHeight="1">
-      <c r="A4" s="20"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -28011,7 +28003,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A5" s="20"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -28038,7 +28030,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="62.4" customHeight="1">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="20" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -28067,7 +28059,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A7" s="20"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -28094,7 +28086,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A8" s="20"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -28121,7 +28113,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -28150,7 +28142,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A10" s="20"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -28177,7 +28169,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A11" s="20"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -28204,7 +28196,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="18" t="s">
         <v>84</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -28233,7 +28225,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A13" s="20"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -28260,7 +28252,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A14" s="20"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -28287,7 +28279,7 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="20" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -28316,7 +28308,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A16" s="20"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -28343,7 +28335,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="63.75" customHeight="1">
-      <c r="A17" s="20"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -32346,21 +32338,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.399999999999999">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -32380,8 +32372,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.6">
-      <c r="A2" s="20"/>
-      <c r="B2" s="23"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -32422,7 +32414,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -32451,7 +32443,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="63.15" customHeight="1">
-      <c r="A4" s="20"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -32478,7 +32470,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A5" s="20"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -32505,7 +32497,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="62.4" customHeight="1">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="20" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -32534,7 +32526,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A7" s="20"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -32561,7 +32553,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A8" s="20"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -32588,7 +32580,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -32617,7 +32609,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A10" s="20"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -32644,7 +32636,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A11" s="20"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -32671,7 +32663,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="18" t="s">
         <v>84</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -32700,7 +32692,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A13" s="20"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -32727,7 +32719,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A14" s="20"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -32754,7 +32746,7 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="20" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -32783,7 +32775,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A16" s="20"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -32810,7 +32802,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="63.75" customHeight="1">
-      <c r="A17" s="20"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -36795,9 +36787,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D9" sqref="D9"/>
+      <selection pane="topRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -36812,21 +36804,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.399999999999999">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -36846,8 +36838,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.6">
-      <c r="A2" s="20"/>
-      <c r="B2" s="23"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -36888,7 +36880,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -36900,12 +36892,14 @@
       <c r="D3" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="63.15" customHeight="1">
-      <c r="A4" s="20"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
@@ -36915,12 +36909,14 @@
       <c r="D4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="10"/>
+      <c r="E4" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A5" s="20"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
@@ -36930,12 +36926,14 @@
       <c r="D5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="62.4" customHeight="1">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="20" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -36947,12 +36945,14 @@
       <c r="D6" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>202</v>
+      </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A7" s="20"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
@@ -36962,12 +36962,14 @@
       <c r="D7" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>202</v>
+      </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A8" s="20"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
@@ -36977,12 +36979,14 @@
       <c r="D8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -36994,12 +36998,14 @@
       <c r="D9" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A10" s="20"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
@@ -37009,12 +37015,14 @@
       <c r="D10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A11" s="20"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
@@ -37024,12 +37032,14 @@
       <c r="D11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="5"/>
+      <c r="E11" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="18" t="s">
         <v>84</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -37041,12 +37051,14 @@
       <c r="D12" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="E12" s="5"/>
+      <c r="E12" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A13" s="20"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -37056,12 +37068,14 @@
       <c r="D13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="5"/>
+      <c r="E13" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A14" s="20"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -37071,12 +37085,14 @@
       <c r="D14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="5"/>
+      <c r="E14" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="20" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -37088,12 +37104,14 @@
       <c r="D15" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="E15" s="5"/>
+      <c r="E15" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A16" s="20"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -37103,12 +37121,14 @@
       <c r="D16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="5"/>
+      <c r="E16" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="63.75" customHeight="1">
-      <c r="A17" s="20"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -37118,7 +37138,9 @@
       <c r="D17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="5"/>
+      <c r="E17" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
     </row>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\project-g1t8\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D947DD8B-9BE8-42FA-8CFF-9998AFD166F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD4DCFB-E187-43DD-9592-66E895A0E6FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="231">
   <si>
     <t>Question</t>
   </si>
@@ -721,6 +721,15 @@
   <si>
     <t>Work on JSON testcases</t>
   </si>
+  <si>
+    <t>Conduct regression testing and debugging</t>
+  </si>
+  <si>
+    <t>Update the schedule and daily updates, deploy app on AWS</t>
+  </si>
+  <si>
+    <t>Conduct regression testing and debugging, test app on cloud</t>
+  </si>
 </sst>
 </file>
 
@@ -36789,7 +36798,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F6" sqref="F6"/>
+      <selection pane="topRight" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -36895,7 +36904,9 @@
       <c r="E3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="5"/>
+      <c r="F3" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="63.15" customHeight="1">
@@ -36912,7 +36923,9 @@
       <c r="E4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="5" t="s">
+        <v>230</v>
+      </c>
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1">
@@ -36929,7 +36942,9 @@
       <c r="E5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="62.4" customHeight="1">
@@ -36948,7 +36963,9 @@
       <c r="E6" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="F6" s="5" t="s">
+        <v>202</v>
+      </c>
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1">
@@ -36965,7 +36982,9 @@
       <c r="E7" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>229</v>
+      </c>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1">
@@ -36982,7 +37001,9 @@
       <c r="E8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1">
@@ -37001,7 +37022,9 @@
       <c r="E9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="F9" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1">
@@ -37018,7 +37041,9 @@
       <c r="E10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="5"/>
+      <c r="F10" s="5" t="s">
+        <v>228</v>
+      </c>
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1">
@@ -37035,7 +37060,9 @@
       <c r="E11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="5"/>
+      <c r="F11" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1">
@@ -37054,7 +37081,9 @@
       <c r="E12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="5"/>
+      <c r="F12" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1">
@@ -37071,7 +37100,9 @@
       <c r="E13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="5"/>
+      <c r="F13" s="5" t="s">
+        <v>228</v>
+      </c>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1">
@@ -37088,7 +37119,9 @@
       <c r="E14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="5"/>
+      <c r="F14" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1">
@@ -37107,7 +37140,9 @@
       <c r="E15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="5"/>
+      <c r="F15" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1">
@@ -37124,7 +37159,9 @@
       <c r="E16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="5"/>
+      <c r="F16" s="5" t="s">
+        <v>230</v>
+      </c>
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="63.75" customHeight="1">
@@ -37141,7 +37178,9 @@
       <c r="E17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="5"/>
+      <c r="F17" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7" ht="15">

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mygit\project-g1t8\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4101EFC9-00A0-4E55-A16F-FE7F97A82BC6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F96B82-A41B-401D-8CF1-C6683C1A0A31}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="238">
   <si>
     <t>Question</t>
   </si>
@@ -739,12 +739,24 @@
   <si>
     <t>Testcases and creating slides for presentation</t>
   </si>
+  <si>
+    <t>Creating slides for presentation</t>
+  </si>
+  <si>
+    <t>Preparation for presentation</t>
+  </si>
+  <si>
+    <t>Created testcases and debugging</t>
+  </si>
+  <si>
+    <t>Created for testcases for bootstrap</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -807,6 +819,12 @@
       <sz val="11"/>
       <name val="Calibri "/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -840,7 +858,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -903,6 +921,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -36805,9 +36826,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G17" sqref="G17"/>
+      <selection pane="topRight" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
@@ -36919,6 +36940,9 @@
       <c r="G3" s="5" t="s">
         <v>230</v>
       </c>
+      <c r="H3" s="25" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="4" spans="1:26" ht="63.15" customHeight="1">
       <c r="A4" s="19"/>
@@ -36940,6 +36964,9 @@
       <c r="G4" s="5" t="s">
         <v>233</v>
       </c>
+      <c r="H4" s="25" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1">
       <c r="A5" s="19"/>
@@ -36961,6 +36988,9 @@
       <c r="G5" s="5" t="s">
         <v>27</v>
       </c>
+      <c r="H5" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="1:26" ht="62.4" customHeight="1">
       <c r="A6" s="20" t="s">
@@ -36983,6 +37013,9 @@
       </c>
       <c r="G6" s="5" t="s">
         <v>229</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1">
@@ -37005,6 +37038,9 @@
       <c r="G7" s="5" t="s">
         <v>233</v>
       </c>
+      <c r="H7" s="25" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1">
       <c r="A8" s="19"/>
@@ -37026,6 +37062,9 @@
       <c r="G8" s="5" t="s">
         <v>27</v>
       </c>
+      <c r="H8" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1">
       <c r="A9" s="20" t="s">
@@ -37048,6 +37087,9 @@
       </c>
       <c r="G9" s="5" t="s">
         <v>231</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1">
@@ -37070,6 +37112,9 @@
       <c r="G10" s="5" t="s">
         <v>232</v>
       </c>
+      <c r="H10" s="25" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1">
       <c r="A11" s="19"/>
@@ -37091,6 +37136,9 @@
       <c r="G11" s="5" t="s">
         <v>27</v>
       </c>
+      <c r="H11" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1">
       <c r="A12" s="18" t="s">
@@ -37113,6 +37161,9 @@
       </c>
       <c r="G12" s="5" t="s">
         <v>231</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1">
@@ -37135,6 +37186,9 @@
       <c r="G13" s="5" t="s">
         <v>29</v>
       </c>
+      <c r="H13" s="25" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1">
       <c r="A14" s="19"/>
@@ -37156,6 +37210,9 @@
       <c r="G14" s="5" t="s">
         <v>27</v>
       </c>
+      <c r="H14" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1">
       <c r="A15" s="20" t="s">
@@ -37178,6 +37235,9 @@
       </c>
       <c r="G15" s="5" t="s">
         <v>230</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1">
@@ -37200,8 +37260,11 @@
       <c r="G16" s="5" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="63.75" customHeight="1">
+      <c r="H16" s="25" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="63.75" customHeight="1">
       <c r="A17" s="19"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
@@ -37221,64 +37284,67 @@
       <c r="G17" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.5">
+      <c r="H17" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.5">
       <c r="A18" s="9"/>
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="1:7" ht="15.5">
+    <row r="19" spans="1:8" ht="15.5">
       <c r="A19" s="9"/>
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="1:7" ht="15.5">
+    <row r="20" spans="1:8" ht="15.5">
       <c r="A20" s="9"/>
       <c r="B20" s="4"/>
     </row>
-    <row r="21" spans="1:7" ht="15.5">
+    <row r="21" spans="1:8" ht="15.5">
       <c r="A21" s="9"/>
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:7" ht="15.5">
+    <row r="22" spans="1:8" ht="15.5">
       <c r="A22" s="9"/>
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="1:7" ht="15.5">
+    <row r="23" spans="1:8" ht="15.5">
       <c r="A23" s="9"/>
       <c r="B23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="15.5">
+    <row r="24" spans="1:8" ht="15.5">
       <c r="A24" s="9"/>
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="1:7" ht="15.5">
+    <row r="25" spans="1:8" ht="15.5">
       <c r="A25" s="9"/>
       <c r="B25" s="4"/>
     </row>
-    <row r="26" spans="1:7" ht="15.5">
+    <row r="26" spans="1:8" ht="15.5">
       <c r="A26" s="9"/>
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="1:7" ht="15.5">
+    <row r="27" spans="1:8" ht="15.5">
       <c r="A27" s="9"/>
       <c r="B27" s="4"/>
     </row>
-    <row r="28" spans="1:7" ht="15.5">
+    <row r="28" spans="1:8" ht="15.5">
       <c r="A28" s="9"/>
       <c r="B28" s="4"/>
     </row>
-    <row r="29" spans="1:7" ht="15.5">
+    <row r="29" spans="1:8" ht="15.5">
       <c r="A29" s="9"/>
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:7" ht="15.5">
+    <row r="30" spans="1:8" ht="15.5">
       <c r="A30" s="9"/>
       <c r="B30" s="4"/>
     </row>
-    <row r="31" spans="1:7" ht="15.5">
+    <row r="31" spans="1:8" ht="15.5">
       <c r="A31" s="9"/>
       <c r="B31" s="4"/>
     </row>
-    <row r="32" spans="1:7" ht="15.5">
+    <row r="32" spans="1:8" ht="15.5">
       <c r="A32" s="9"/>
       <c r="B32" s="4"/>
     </row>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mygit\project-g1t8\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F96B82-A41B-401D-8CF1-C6683C1A0A31}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{324972C7-17A3-4BAD-A667-D8D95B34D433}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="247">
   <si>
     <t>Question</t>
   </si>
@@ -751,6 +751,33 @@
   <si>
     <t>Created for testcases for bootstrap</t>
   </si>
+  <si>
+    <t>debugging and prepare for presentation</t>
+  </si>
+  <si>
+    <t>Updated testcases and bug metrics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preparation for presentation, integrate UI, edit UI design and arrange relevant files </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preparation for presentation, integrate UI, edit UI design  </t>
+  </si>
+  <si>
+    <t>Deploy, test, prepare for presentation and submission</t>
+  </si>
+  <si>
+    <t>Debugging and preparation for presentation</t>
+  </si>
+  <si>
+    <t>Testcases, bug metrics and preparation for presentation</t>
+  </si>
+  <si>
+    <t>Testcases and preparation for presentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preparation for presentation </t>
+  </si>
 </sst>
 </file>
 
@@ -903,6 +930,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -921,9 +951,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1228,21 +1255,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.5">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -1262,8 +1289,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.5">
-      <c r="A2" s="19"/>
-      <c r="B2" s="22"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -1304,7 +1331,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="21" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1325,7 +1352,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="63.15" customHeight="1">
-      <c r="A4" s="19"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -1344,7 +1371,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A5" s="19"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -1363,7 +1390,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="62.4" customHeight="1">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="21" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1384,7 +1411,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A7" s="19"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -1403,7 +1430,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A8" s="19"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -1422,7 +1449,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="21" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1443,7 +1470,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A10" s="19"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -1462,7 +1489,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A11" s="19"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -1481,7 +1508,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="19" t="s">
         <v>84</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -1502,7 +1529,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A13" s="19"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -1521,7 +1548,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A14" s="19"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -1540,7 +1567,7 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="21" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -1561,7 +1588,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A16" s="19"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -1580,7 +1607,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="63.75" customHeight="1">
-      <c r="A17" s="19"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -5575,21 +5602,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.5">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -5609,8 +5636,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.5">
-      <c r="A2" s="19"/>
-      <c r="B2" s="22"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -5651,7 +5678,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="21" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -5680,7 +5707,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="63.15" customHeight="1">
-      <c r="A4" s="19"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -5707,7 +5734,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A5" s="19"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -5734,7 +5761,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="62.4" customHeight="1">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="21" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -5763,7 +5790,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A7" s="19"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -5790,7 +5817,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A8" s="19"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -5817,7 +5844,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="21" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -5846,7 +5873,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A10" s="19"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -5873,7 +5900,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A11" s="19"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -5900,7 +5927,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="19" t="s">
         <v>84</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -5929,7 +5956,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A13" s="19"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -5956,7 +5983,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A14" s="19"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -5983,7 +6010,7 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="21" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -6012,7 +6039,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A16" s="19"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -6039,7 +6066,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="63.75" customHeight="1">
-      <c r="A17" s="19"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -10042,21 +10069,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.5">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -10076,8 +10103,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.5">
-      <c r="A2" s="19"/>
-      <c r="B2" s="22"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -10118,7 +10145,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="21" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -10147,7 +10174,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="63.15" customHeight="1">
-      <c r="A4" s="19"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -10174,7 +10201,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A5" s="19"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -10201,7 +10228,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="62.4" customHeight="1">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="21" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -10230,7 +10257,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A7" s="19"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -10257,7 +10284,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A8" s="19"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -10284,7 +10311,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="21" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -10313,7 +10340,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A10" s="19"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -10340,7 +10367,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A11" s="19"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -10367,7 +10394,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="19" t="s">
         <v>84</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -10396,7 +10423,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A13" s="19"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -10423,7 +10450,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A14" s="19"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -10450,7 +10477,7 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="21" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -10479,7 +10506,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A16" s="19"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -10506,7 +10533,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="63.75" customHeight="1">
-      <c r="A17" s="19"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -14509,21 +14536,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.5">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -14543,8 +14570,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.5">
-      <c r="A2" s="19"/>
-      <c r="B2" s="22"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -14585,7 +14612,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="21" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -14614,7 +14641,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="63.15" customHeight="1">
-      <c r="A4" s="19"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -14641,7 +14668,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A5" s="19"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -14668,7 +14695,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="62.4" customHeight="1">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="21" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -14697,7 +14724,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A7" s="19"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -14724,7 +14751,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A8" s="19"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -14751,7 +14778,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="21" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -14780,7 +14807,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A10" s="19"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -14807,7 +14834,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A11" s="19"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -14834,7 +14861,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="19" t="s">
         <v>84</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -14863,7 +14890,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A13" s="19"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -14890,7 +14917,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A14" s="19"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -14917,7 +14944,7 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="21" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -14946,7 +14973,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A16" s="19"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -14973,7 +15000,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="63.75" customHeight="1">
-      <c r="A17" s="19"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -18976,21 +19003,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.5">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -19010,8 +19037,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.5">
-      <c r="A2" s="19"/>
-      <c r="B2" s="22"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -19052,7 +19079,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="21" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -19081,7 +19108,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="63.15" customHeight="1">
-      <c r="A4" s="19"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -19108,7 +19135,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A5" s="19"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -19135,7 +19162,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="62.4" customHeight="1">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="21" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -19164,7 +19191,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A7" s="19"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -19191,7 +19218,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A8" s="19"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -19218,7 +19245,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="21" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -19247,7 +19274,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A10" s="19"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -19274,7 +19301,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A11" s="19"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -19301,7 +19328,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="19" t="s">
         <v>84</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -19330,7 +19357,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A13" s="19"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -19357,7 +19384,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A14" s="19"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -19384,7 +19411,7 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="21" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -19413,7 +19440,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A16" s="19"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -19440,7 +19467,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="63.75" customHeight="1">
-      <c r="A17" s="19"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -23443,21 +23470,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.5">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -23477,8 +23504,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.5">
-      <c r="A2" s="19"/>
-      <c r="B2" s="22"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
@@ -23519,7 +23546,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="21" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -23548,7 +23575,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="63.15" customHeight="1">
-      <c r="A4" s="19"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -23575,7 +23602,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A5" s="19"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -23602,7 +23629,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="62.4" customHeight="1">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="21" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -23631,7 +23658,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A7" s="19"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -23658,7 +23685,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A8" s="19"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -23685,7 +23712,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="21" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -23714,7 +23741,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A10" s="19"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -23741,7 +23768,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A11" s="19"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -23768,7 +23795,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="19" t="s">
         <v>84</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -23797,7 +23824,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A13" s="19"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -23824,7 +23851,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A14" s="19"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -23851,7 +23878,7 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="21" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -23880,7 +23907,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A16" s="19"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -23907,7 +23934,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="63.75" customHeight="1">
-      <c r="A17" s="19"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -27910,21 +27937,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.5">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -27944,8 +27971,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.5">
-      <c r="A2" s="19"/>
-      <c r="B2" s="22"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -27986,7 +28013,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="21" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -28015,7 +28042,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="63.15" customHeight="1">
-      <c r="A4" s="19"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -28042,7 +28069,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A5" s="19"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -28069,7 +28096,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="62.4" customHeight="1">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="21" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -28098,7 +28125,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A7" s="19"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -28125,7 +28152,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A8" s="19"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -28152,7 +28179,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="21" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -28181,7 +28208,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A10" s="19"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -28208,7 +28235,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A11" s="19"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -28235,7 +28262,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="19" t="s">
         <v>84</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -28264,7 +28291,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A13" s="19"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -28291,7 +28318,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A14" s="19"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -28318,7 +28345,7 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="21" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -28347,7 +28374,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A16" s="19"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -28374,7 +28401,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="63.75" customHeight="1">
-      <c r="A17" s="19"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -32377,21 +32404,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.5">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -32411,8 +32438,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.5">
-      <c r="A2" s="19"/>
-      <c r="B2" s="22"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -32453,7 +32480,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="21" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -32482,7 +32509,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="63.15" customHeight="1">
-      <c r="A4" s="19"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -32509,7 +32536,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A5" s="19"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -32536,7 +32563,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="62.4" customHeight="1">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="21" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -32565,7 +32592,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A7" s="19"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -32592,7 +32619,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A8" s="19"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -32619,7 +32646,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="21" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -32648,7 +32675,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A10" s="19"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -32675,7 +32702,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A11" s="19"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -32702,7 +32729,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="19" t="s">
         <v>84</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -32731,7 +32758,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A13" s="19"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -32758,7 +32785,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A14" s="19"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -32785,7 +32812,7 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="21" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -32814,7 +32841,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A16" s="19"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -32841,7 +32868,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="63.75" customHeight="1">
-      <c r="A17" s="19"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -36826,9 +36853,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
@@ -36843,21 +36870,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.5">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -36877,8 +36904,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.5">
-      <c r="A2" s="19"/>
-      <c r="B2" s="22"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -36919,7 +36946,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="21" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -36940,12 +36967,15 @@
       <c r="G3" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="18" t="s">
         <v>234</v>
       </c>
+      <c r="I3" s="18" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="4" spans="1:26" ht="63.15" customHeight="1">
-      <c r="A4" s="19"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
@@ -36964,12 +36994,15 @@
       <c r="G4" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="H4" s="25" t="s">
-        <v>235</v>
+      <c r="H4" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A5" s="19"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
@@ -36991,9 +37024,12 @@
       <c r="H5" s="5" t="s">
         <v>27</v>
       </c>
+      <c r="I5" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="1:26" ht="62.4" customHeight="1">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="21" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -37014,12 +37050,15 @@
       <c r="G6" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="18" t="s">
         <v>234</v>
       </c>
+      <c r="I6" s="18" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A7" s="19"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
@@ -37038,12 +37077,15 @@
       <c r="G7" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="H7" s="25" t="s">
+      <c r="H7" s="18" t="s">
         <v>235</v>
       </c>
+      <c r="I7" s="18" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A8" s="19"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
@@ -37065,9 +37107,12 @@
       <c r="H8" s="5" t="s">
         <v>27</v>
       </c>
+      <c r="I8" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="21" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -37088,12 +37133,15 @@
       <c r="G9" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="H9" s="25" t="s">
+      <c r="H9" s="18" t="s">
         <v>237</v>
       </c>
+      <c r="I9" s="18" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A10" s="19"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
@@ -37112,12 +37160,15 @@
       <c r="G10" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="H10" s="25" t="s">
-        <v>235</v>
+      <c r="H10" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A11" s="19"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
@@ -37139,9 +37190,12 @@
       <c r="H11" s="5" t="s">
         <v>27</v>
       </c>
+      <c r="I11" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="19" t="s">
         <v>84</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -37162,12 +37216,15 @@
       <c r="G12" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="H12" s="25" t="s">
+      <c r="H12" s="18" t="s">
         <v>234</v>
       </c>
+      <c r="I12" s="18" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A13" s="19"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -37186,12 +37243,15 @@
       <c r="G13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="25" t="s">
-        <v>235</v>
+      <c r="H13" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A14" s="19"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -37213,9 +37273,12 @@
       <c r="H14" s="5" t="s">
         <v>27</v>
       </c>
+      <c r="I14" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="21" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -37236,12 +37299,15 @@
       <c r="G15" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="H15" s="25" t="s">
+      <c r="H15" s="18" t="s">
         <v>236</v>
       </c>
+      <c r="I15" s="18" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A16" s="19"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -37260,12 +37326,15 @@
       <c r="G16" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="H16" s="25" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="63.75" customHeight="1">
-      <c r="A17" s="19"/>
+      <c r="H16" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="63.75" customHeight="1">
+      <c r="A17" s="20"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -37287,64 +37356,67 @@
       <c r="H17" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="15.5">
+      <c r="I17" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.5">
       <c r="A18" s="9"/>
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="1:8" ht="15.5">
+    <row r="19" spans="1:9" ht="15.5">
       <c r="A19" s="9"/>
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="1:8" ht="15.5">
+    <row r="20" spans="1:9" ht="15.5">
       <c r="A20" s="9"/>
       <c r="B20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="15.5">
+    <row r="21" spans="1:9" ht="15.5">
       <c r="A21" s="9"/>
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:8" ht="15.5">
+    <row r="22" spans="1:9" ht="15.5">
       <c r="A22" s="9"/>
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="1:8" ht="15.5">
+    <row r="23" spans="1:9" ht="15.5">
       <c r="A23" s="9"/>
       <c r="B23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="15.5">
+    <row r="24" spans="1:9" ht="15.5">
       <c r="A24" s="9"/>
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="1:8" ht="15.5">
+    <row r="25" spans="1:9" ht="15.5">
       <c r="A25" s="9"/>
       <c r="B25" s="4"/>
     </row>
-    <row r="26" spans="1:8" ht="15.5">
+    <row r="26" spans="1:9" ht="15.5">
       <c r="A26" s="9"/>
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="1:8" ht="15.5">
+    <row r="27" spans="1:9" ht="15.5">
       <c r="A27" s="9"/>
       <c r="B27" s="4"/>
     </row>
-    <row r="28" spans="1:8" ht="15.5">
+    <row r="28" spans="1:9" ht="15.5">
       <c r="A28" s="9"/>
       <c r="B28" s="4"/>
     </row>
-    <row r="29" spans="1:8" ht="15.5">
+    <row r="29" spans="1:9" ht="15.5">
       <c r="A29" s="9"/>
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:8" ht="15.5">
+    <row r="30" spans="1:9" ht="15.5">
       <c r="A30" s="9"/>
       <c r="B30" s="4"/>
     </row>
-    <row r="31" spans="1:8" ht="15.5">
+    <row r="31" spans="1:9" ht="15.5">
       <c r="A31" s="9"/>
       <c r="B31" s="4"/>
     </row>
-    <row r="32" spans="1:8" ht="15.5">
+    <row r="32" spans="1:9" ht="15.5">
       <c r="A32" s="9"/>
       <c r="B32" s="4"/>
     </row>
